--- a/FIGS_Automations/FIGS_Automations/FIGS_Automations/testdata/Acquisition_Services.xlsx
+++ b/FIGS_Automations/FIGS_Automations/FIGS_Automations/testdata/Acquisition_Services.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FIGS_Automations\FIGS_Automations\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284142A4-8477-4323-8933-59C069A8972F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="SSS_PMJJBY" sheetId="6" r:id="rId1"/>
@@ -23,8 +22,9 @@
     <sheet name="Deposit_LoanAccount" sheetId="12" r:id="rId8"/>
     <sheet name="LoanDataCollection" sheetId="15" r:id="rId9"/>
     <sheet name="Aadhaar_Seeding_SubKO" sheetId="16" r:id="rId10"/>
+    <sheet name="AadharLink" sheetId="17" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6086" uniqueCount="1297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6567" uniqueCount="1434">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -2460,15 +2460,9 @@
     <t>Mobile Number Verification Successful</t>
   </si>
   <si>
-    <t>Pass_18/07/2025 5:45:13 pm</t>
-  </si>
-  <si>
     <t>TCDTLA029</t>
   </si>
   <si>
-    <t>Pass_18/07/2025 5:45:14 pm</t>
-  </si>
-  <si>
     <t>TCDTLA030</t>
   </si>
   <si>
@@ -2478,12 +2472,6 @@
     <t>TCDTLA032</t>
   </si>
   <si>
-    <t>Receipt of Loan Deposit Transaction visible</t>
-  </si>
-  <si>
-    <t>Pass_18/07/2025 5:45:24 pm</t>
-  </si>
-  <si>
     <t>TCDTLA033</t>
   </si>
   <si>
@@ -2493,12 +2481,6 @@
     <t>Pune is filled</t>
   </si>
   <si>
-    <t>Pass : 20/09/2025 1:15:15 pm</t>
-  </si>
-  <si>
-    <t>Mobile Number 9960548244 Entered.</t>
-  </si>
-  <si>
     <t>TCCBR001</t>
   </si>
   <si>
@@ -3471,18 +3453,12 @@
     <t>Fail_07/08/2025 1:12:12 pm</t>
   </si>
   <si>
-    <t>Selected User Service is = Stop Payment of Cheque</t>
-  </si>
-  <si>
     <t>Fail : 23/09/2025 6:29:22 pm</t>
   </si>
   <si>
     <t xml:space="preserve"> /n Error Caused due to some un expected Error or due to conditions of Negative testcase.</t>
   </si>
   <si>
-    <t>Fail : 26/09/2025 10:44:45 am</t>
-  </si>
-  <si>
     <t>Pass : 26/09/2025 10:59:01 am</t>
   </si>
   <si>
@@ -3555,153 +3531,18 @@
     <t>Fail : 01/10/2025 11:20:14 am</t>
   </si>
   <si>
-    <t>Pass : 06/10/2025 4:45:01 pm</t>
-  </si>
-  <si>
-    <t>Fail : 06/10/2025 4:45:12 pm</t>
-  </si>
-  <si>
-    <t>Fail : 06/10/2025 4:45:33 pm</t>
-  </si>
-  <si>
-    <t>Fail : 06/10/2025 4:45:53 pm</t>
-  </si>
-  <si>
-    <t>Pass : 06/10/2025 4:45:54 pm</t>
-  </si>
-  <si>
-    <t>Pass : 06/10/2025 4:45:55 pm</t>
-  </si>
-  <si>
-    <t>Fail : 06/10/2025 4:46:05 pm</t>
-  </si>
-  <si>
-    <t>Pass : 06/10/2025 4:46:05 pm</t>
-  </si>
-  <si>
-    <t>Fail : 06/10/2025 4:46:16 pm</t>
-  </si>
-  <si>
-    <t>Fail : 06/10/2025 4:46:26 pm</t>
-  </si>
-  <si>
-    <t>Fail : 07/10/2025 12:30:02 pm</t>
-  </si>
-  <si>
-    <t>Fail : 07/10/2025 12:30:13 pm</t>
-  </si>
-  <si>
     <t>Selected User Service is = View Loan Data Collection</t>
   </si>
   <si>
-    <t>Search button is clickable.</t>
-  </si>
-  <si>
-    <t>Follow Up button is clickable.</t>
-  </si>
-  <si>
-    <t>Walk-in is Selected</t>
-  </si>
-  <si>
-    <t>Father is Selected</t>
-  </si>
-  <si>
-    <t>Home is Selected</t>
-  </si>
-  <si>
-    <t>EMAIL is Selected</t>
-  </si>
-  <si>
-    <t>ACCOUNT CLOSURE is Selected</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 4:43:38 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 4:43:39 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 4:43:40 pm</t>
-  </si>
-  <si>
     <t>Nitin is filled</t>
   </si>
   <si>
-    <t>Pass : 08/10/2025 4:43:42 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 4:43:43 pm</t>
-  </si>
-  <si>
     <t>Adhaar NumberXXXXXXXX9727 Entered.</t>
   </si>
   <si>
     <t>Mobile Number 8297708857 Entered.</t>
   </si>
   <si>
-    <t>Pass : 08/10/2025 4:43:44 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 5:27:57 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 5:27:58 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 5:27:59 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 5:28:06 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 5:28:07 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 5:28:08 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 5:28:09 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 5:28:10 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 5:28:11 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 5:28:12 pm</t>
-  </si>
-  <si>
-    <t>11/22/2000 Entered</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 5:28:16 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 5:28:17 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 5:28:18 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 5:28:19 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 5:28:20 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 5:28:21 pm</t>
-  </si>
-  <si>
-    <t>Fail : 08/10/2025 5:28:22 pm</t>
-  </si>
-  <si>
-    <t>Fail : 08/10/2025 5:28:24 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 5:28:24 pm</t>
-  </si>
-  <si>
     <t>Pass : 08/10/2025 5:28:36 pm</t>
   </si>
   <si>
@@ -3711,84 +3552,9 @@
     <t>Pass : 08/10/2025 5:28:52 pm</t>
   </si>
   <si>
-    <t>Pass : 08/10/2025 5:32:27 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 5:32:28 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 5:32:34 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 5:32:35 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 5:32:36 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 5:32:37 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 5:32:38 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 5:32:39 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 5:32:44 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 5:32:45 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 5:32:46 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 5:32:47 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 5:32:48 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 5:32:49 pm</t>
-  </si>
-  <si>
-    <t>Fail : 08/10/2025 5:32:49 pm</t>
-  </si>
-  <si>
-    <t>Fail : 08/10/2025 5:32:51 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 5:32:52 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 5:33:02 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 5:33:16 pm</t>
-  </si>
-  <si>
     <t>Fail : 08/10/2025 5:33:26 pm</t>
   </si>
   <si>
-    <t>Pass : 08/10/2025 6:31:41 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 6:31:42 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 6:31:43 pm</t>
-  </si>
-  <si>
-    <t>Fail : 08/10/2025 6:31:51 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 6:40:45 pm</t>
-  </si>
-  <si>
-    <t>Pass : 08/10/2025 6:42:32 pm</t>
-  </si>
-  <si>
     <t>Fail : 08/10/2025 6:42:33 pm</t>
   </si>
   <si>
@@ -3816,36 +3582,6 @@
     <t>Next Date</t>
   </si>
   <si>
-    <t>Pass : 10/10/2025 11:53:33 am</t>
-  </si>
-  <si>
-    <t>Pass : 10/10/2025 11:53:35 am</t>
-  </si>
-  <si>
-    <t>Pass : 10/10/2025 11:53:44 am</t>
-  </si>
-  <si>
-    <t>Pass : 10/10/2025 11:53:45 am</t>
-  </si>
-  <si>
-    <t>Pass : 10/10/2025 11:53:46 am</t>
-  </si>
-  <si>
-    <t>Fail : 10/10/2025 11:53:48 am</t>
-  </si>
-  <si>
-    <t>Pass : 10/10/2025 11:53:48 am</t>
-  </si>
-  <si>
-    <t>Pass : 10/10/2025 11:53:49 am</t>
-  </si>
-  <si>
-    <t>Pass : 10/10/2025 11:53:53 am</t>
-  </si>
-  <si>
-    <t>Fail : 10/10/2025 11:53:54 am</t>
-  </si>
-  <si>
     <t>Pass : 15/10/2025 2:39:40 pm</t>
   </si>
   <si>
@@ -3867,90 +3603,771 @@
     <t>Pass : 15/10/2025 2:39:47 pm</t>
   </si>
   <si>
-    <t>Pass : 28/10/2025 5:34:07 pm</t>
-  </si>
-  <si>
-    <t>Pass : 28/10/2025 5:34:09 pm</t>
-  </si>
-  <si>
-    <t>Pass : 28/10/2025 5:34:10 pm</t>
-  </si>
-  <si>
-    <t>Pass : 28/10/2025 5:34:11 pm</t>
-  </si>
-  <si>
-    <t>Pass : 28/10/2025 5:34:13 pm</t>
-  </si>
-  <si>
-    <t>Pass : 28/10/2025 5:34:14 pm</t>
-  </si>
-  <si>
-    <t>Fail : 28/10/2025 5:34:59 pm</t>
-  </si>
-  <si>
-    <t>Fail : 28/10/2025 5:35:20 pm</t>
-  </si>
-  <si>
-    <t>Pass : 28/10/2025 5:35:20 pm</t>
-  </si>
-  <si>
-    <t>Fail : 28/10/2025 5:35:31 pm</t>
-  </si>
-  <si>
-    <t>Fail : 28/10/2025 5:35:51 pm</t>
-  </si>
-  <si>
-    <t>Fail : 28/10/2025 5:36:12 pm</t>
-  </si>
-  <si>
-    <t>Pass : 28/10/2025 5:36:23 pm</t>
-  </si>
-  <si>
-    <t>Pass : 28/10/2025 5:36:24 pm</t>
-  </si>
-  <si>
-    <t>Fail : 28/10/2025 5:36:34 pm</t>
-  </si>
-  <si>
-    <t>Pass : 28/10/2025 5:36:34 pm</t>
-  </si>
-  <si>
-    <t>Fail : 28/10/2025 5:36:44 pm</t>
-  </si>
-  <si>
-    <t>Fail : 28/10/2025 5:36:54 pm</t>
-  </si>
-  <si>
-    <t>Fail : 28/10/2025 5:37:14 pm</t>
-  </si>
-  <si>
-    <t>Fail : 28/10/2025 5:37:25 pm</t>
-  </si>
-  <si>
-    <t>Fail : 28/10/2025 5:37:35 pm</t>
-  </si>
-  <si>
-    <t>Fail : 28/10/2025 5:37:55 pm</t>
-  </si>
-  <si>
-    <t>Fail : 28/10/2025 5:38:16 pm</t>
-  </si>
-  <si>
-    <t>Pass : 28/10/2025 5:38:16 pm</t>
-  </si>
-  <si>
-    <t>Fail : 28/10/2025 5:38:36 pm</t>
-  </si>
-  <si>
-    <t>Fail : 28/10/2025 5:38:56 pm</t>
+    <t>Fail : 12/11/2025 11:40:23 am</t>
+  </si>
+  <si>
+    <t>Fail : 12/11/2025 11:40:34 am</t>
+  </si>
+  <si>
+    <t>Fail : 12/11/2025 11:40:54 am</t>
+  </si>
+  <si>
+    <t>Fail : 12/11/2025 11:41:14 am</t>
+  </si>
+  <si>
+    <t>Fail : 12/11/2025 11:41:34 am</t>
+  </si>
+  <si>
+    <t>Fail : 12/11/2025 11:41:55 am</t>
+  </si>
+  <si>
+    <t>Pass : 12/11/2025 11:41:56 am</t>
+  </si>
+  <si>
+    <t>Pass : 12/11/2025 11:41:57 am</t>
+  </si>
+  <si>
+    <t>Fail : 12/11/2025 11:42:07 am</t>
+  </si>
+  <si>
+    <t>Pass : 12/11/2025 11:42:07 am</t>
+  </si>
+  <si>
+    <t>Fail : 12/11/2025 11:42:17 am</t>
+  </si>
+  <si>
+    <t>Fail : 12/11/2025 11:42:27 am</t>
+  </si>
+  <si>
+    <t>Fail : 12/11/2025 11:42:47 am</t>
+  </si>
+  <si>
+    <t>Fail : 12/11/2025 11:42:58 am</t>
+  </si>
+  <si>
+    <t>Fail : 12/11/2025 11:43:08 am</t>
+  </si>
+  <si>
+    <t>Fail : 12/11/2025 11:43:28 am</t>
+  </si>
+  <si>
+    <t>Fail : 12/11/2025 11:43:49 am</t>
+  </si>
+  <si>
+    <t>Pass : 12/11/2025 11:43:49 am</t>
+  </si>
+  <si>
+    <t>Fail : 12/11/2025 11:44:09 am</t>
+  </si>
+  <si>
+    <t>Fail : 12/11/2025 11:44:29 am</t>
+  </si>
+  <si>
+    <t>Pass : 12/11/2025 3:25:11 pm</t>
+  </si>
+  <si>
+    <t>Pass : 12/11/2025 3:25:12 pm</t>
+  </si>
+  <si>
+    <t>Pass : 12/11/2025 3:25:13 pm</t>
+  </si>
+  <si>
+    <t>Pass : 12/11/2025 3:25:14 pm</t>
+  </si>
+  <si>
+    <t>Fail : 12/11/2025 3:25:24 pm</t>
+  </si>
+  <si>
+    <t>Pass : 12/11/2025 3:25:25 pm</t>
+  </si>
+  <si>
+    <t>Pass : 12/11/2025 3:25:26 pm</t>
+  </si>
+  <si>
+    <t>Pass : 12/11/2025 3:25:27 pm</t>
+  </si>
+  <si>
+    <t>Pass : 12/11/2025 3:25:28 pm</t>
+  </si>
+  <si>
+    <t>Pass : 12/11/2025 3:25:29 pm</t>
+  </si>
+  <si>
+    <t>Pass : 12/11/2025 3:25:30 pm</t>
+  </si>
+  <si>
+    <t>Pass : 12/11/2025 3:25:34 pm</t>
+  </si>
+  <si>
+    <t>Pass : 12/11/2025 3:25:35 pm</t>
+  </si>
+  <si>
+    <t>Pass : 12/11/2025 3:25:36 pm</t>
+  </si>
+  <si>
+    <t>Pass : 12/11/2025 3:25:37 pm</t>
+  </si>
+  <si>
+    <t>Pass : 12/11/2025 3:25:38 pm</t>
+  </si>
+  <si>
+    <t>Pass : 12/11/2025 3:25:39 pm</t>
+  </si>
+  <si>
+    <t>Pass : 12/11/2025 3:25:40 pm</t>
+  </si>
+  <si>
+    <t>Pass : 12/11/2025 3:25:41 pm</t>
+  </si>
+  <si>
+    <t>Fail : 12/11/2025 3:25:42 pm</t>
+  </si>
+  <si>
+    <t>Fail : 12/11/2025 3:25:43 pm</t>
+  </si>
+  <si>
+    <t>Pass : 12/11/2025 3:25:43 pm</t>
+  </si>
+  <si>
+    <t>Pass : 12/11/2025 5:27:51 pm</t>
+  </si>
+  <si>
+    <t>Pass : 12/11/2025 5:27:52 pm</t>
+  </si>
+  <si>
+    <t>Pass : 12/11/2025 5:27:53 pm</t>
+  </si>
+  <si>
+    <t>Pass : 12/11/2025 5:27:54 pm</t>
+  </si>
+  <si>
+    <t>Pass : 12/11/2025 5:28:00 pm</t>
+  </si>
+  <si>
+    <t>Pass : 12/11/2025 5:28:01 pm</t>
+  </si>
+  <si>
+    <t>Pass : 12/11/2025 5:28:02 pm</t>
+  </si>
+  <si>
+    <t>Pass : 12/11/2025 5:28:03 pm</t>
+  </si>
+  <si>
+    <t>Pass : 12/11/2025 5:28:04 pm</t>
+  </si>
+  <si>
+    <t>Pass : 12/11/2025 5:28:05 pm</t>
+  </si>
+  <si>
+    <t>Pass : 12/11/2025 5:28:06 pm</t>
+  </si>
+  <si>
+    <t>12/22/2000 Entered</t>
+  </si>
+  <si>
+    <t>Pass : 12/11/2025 5:28:10 pm</t>
+  </si>
+  <si>
+    <t>Pass : 12/11/2025 5:28:11 pm</t>
+  </si>
+  <si>
+    <t>Pass : 12/11/2025 5:28:12 pm</t>
+  </si>
+  <si>
+    <t>Pass : 12/11/2025 5:28:13 pm</t>
+  </si>
+  <si>
+    <t>Pass : 12/11/2025 5:28:14 pm</t>
+  </si>
+  <si>
+    <t>Pass : 12/11/2025 5:28:15 pm</t>
+  </si>
+  <si>
+    <t>Pass : 12/11/2025 5:28:16 pm</t>
+  </si>
+  <si>
+    <t>Fail : 12/11/2025 5:28:17 pm</t>
+  </si>
+  <si>
+    <t>Pass : 12/11/2025 5:28:18 pm</t>
+  </si>
+  <si>
+    <t>Pass : 12/11/2025 5:28:30 pm</t>
+  </si>
+  <si>
+    <t>Pass : 12/11/2025 5:28:47 pm</t>
+  </si>
+  <si>
+    <t>Pass : 12/11/2025 5:29:45 pm</t>
+  </si>
+  <si>
+    <t>Pass : 12/11/2025 5:29:46 pm</t>
+  </si>
+  <si>
+    <t>Pass : 12/11/2025 5:29:47 pm</t>
+  </si>
+  <si>
+    <t>Pass : 12/11/2025 5:29:48 pm</t>
+  </si>
+  <si>
+    <t>Fail : 12/11/2025 5:29:54 pm</t>
+  </si>
+  <si>
+    <t>TCALK001</t>
+  </si>
+  <si>
+    <t>AadhaarSeeding</t>
+  </si>
+  <si>
+    <t>Click on "Aadhaar Linking"  menu under user services</t>
+  </si>
+  <si>
+    <t>User Should be able to select "Aadhaar Seeding &amp; Aadhaar De-Seeding" option</t>
+  </si>
+  <si>
+    <t>Agent Aadhaar Seeding</t>
+  </si>
+  <si>
+    <t>Selected User Service is = Aadhaar Seeding &amp; Aadhaar De-Seeding</t>
+  </si>
+  <si>
+    <t>Pass : 09/10/2025 11:19:22 am</t>
+  </si>
+  <si>
+    <t>TCALK002</t>
+  </si>
+  <si>
+    <t>Click on "Aadhaar Seeding"  Tab</t>
+  </si>
+  <si>
+    <t>Selected User Service is = Aadhaar Seeding</t>
+  </si>
+  <si>
+    <t>TCALK003</t>
+  </si>
+  <si>
+    <t>ValidData</t>
+  </si>
+  <si>
+    <t>Pass : 09/10/2025 11:19:23 am</t>
+  </si>
+  <si>
+    <t>TCALK004</t>
+  </si>
+  <si>
+    <t>Account Number  Text Field should be present.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter Account Number  </t>
+  </si>
+  <si>
+    <t>User Entered Account Number = 50003490170</t>
+  </si>
+  <si>
+    <t>TCALK005</t>
+  </si>
+  <si>
+    <t>Aadhar Already Linked with Other Bank  Text Field should be present.</t>
+  </si>
+  <si>
+    <t>Aadhar Already Linked with Other Bank Yes</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Aadhar Already Linked with Other Bank</t>
+  </si>
+  <si>
+    <t>Test Case Failed</t>
+  </si>
+  <si>
+    <t>Fail : 09/10/2025 11:19:24 am</t>
+  </si>
+  <si>
+    <t>TCALK006</t>
+  </si>
+  <si>
+    <t>Previous Bank Name  Text Field should be present.</t>
+  </si>
+  <si>
+    <t>Previous Bank Name SBI</t>
+  </si>
+  <si>
+    <t>ABHYUDAYA CO-OPERATIVE BANK</t>
+  </si>
+  <si>
+    <t>BankNameAdharSeeding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank Name is Selected  </t>
+  </si>
+  <si>
+    <t>Pass : 08/10/2025 7:31:16 pm</t>
+  </si>
+  <si>
+    <t>TCALK007</t>
+  </si>
+  <si>
+    <t>Proceed button is enable and clicked</t>
+  </si>
+  <si>
+    <t>Pass : 08/10/2025 7:31:17 pm</t>
+  </si>
+  <si>
+    <t>TCALK008</t>
+  </si>
+  <si>
+    <t>Enter Agent Transaction Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Below Popup message should get display
+Enter Agent Transaction Password </t>
+  </si>
+  <si>
+    <t>Proceed button is Succesful Authorize</t>
+  </si>
+  <si>
+    <t>Pass : 08/10/2025 7:31:27 pm</t>
+  </si>
+  <si>
+    <t>TCALK009</t>
+  </si>
+  <si>
+    <t>ClickProceed</t>
+  </si>
+  <si>
+    <t>Proceed PopUP button is enable and clicked</t>
+  </si>
+  <si>
+    <t>Pass : 08/10/2025 7:24:21 pm</t>
+  </si>
+  <si>
+    <t>TCALK010</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /n Error caused due to unexpected flow or negative testcase. Check Screenshot.</t>
+  </si>
+  <si>
+    <t>Fail : 08/10/2025 7:24:42 pm</t>
+  </si>
+  <si>
+    <t>TCALK011</t>
+  </si>
+  <si>
+    <t>Fail : 08/10/2025 7:25:33 pm</t>
+  </si>
+  <si>
+    <t>TCALK012</t>
+  </si>
+  <si>
+    <t>FingerProceed</t>
+  </si>
+  <si>
+    <t>Fail : 08/10/2025 7:25:44 pm</t>
+  </si>
+  <si>
+    <t>TCALK013</t>
+  </si>
+  <si>
+    <t>Succesfuly Adhar Seeded</t>
+  </si>
+  <si>
+    <t>user should able to see Succesfuly Adhar Seeded</t>
+  </si>
+  <si>
+    <t>Aadhaar De-Seeding</t>
+  </si>
+  <si>
+    <t>Pass : 08/10/2025 7:25:44 pm</t>
+  </si>
+  <si>
+    <t>Pass : 24/09/2025 3:19:29 pm</t>
+  </si>
+  <si>
+    <t>TCALK014</t>
+  </si>
+  <si>
+    <t>Click on "Aadhaar DeSeeding"  Tab</t>
+  </si>
+  <si>
+    <t>AadhaarDeSeeding</t>
+  </si>
+  <si>
+    <t>TCALK015</t>
+  </si>
+  <si>
+    <t>TCALK016</t>
+  </si>
+  <si>
+    <t>TCALK017</t>
+  </si>
+  <si>
+    <t>TCALK018</t>
+  </si>
+  <si>
+    <t>TCALK019</t>
+  </si>
+  <si>
+    <t>TCALK020</t>
+  </si>
+  <si>
+    <t>TCALK021</t>
+  </si>
+  <si>
+    <t>TCALK022</t>
+  </si>
+  <si>
+    <t>TCALK023</t>
+  </si>
+  <si>
+    <t>Succesfuly Adhar DeSeeded</t>
+  </si>
+  <si>
+    <t>user should able to see Succesfuly Adhar DeSeeded</t>
+  </si>
+  <si>
+    <t>Aadhaar De-Seeding Successful</t>
+  </si>
+  <si>
+    <t>TCALK024</t>
+  </si>
+  <si>
+    <t>Steps:
+1)  Click on &lt;Reset&gt; button.</t>
+  </si>
+  <si>
+    <t>Data should get cleared.</t>
+  </si>
+  <si>
+    <t>1234-5678-9124</t>
+  </si>
+  <si>
+    <t>ClickReset</t>
+  </si>
+  <si>
+    <t>Data is Cleared</t>
+  </si>
+  <si>
+    <t>TCALK025</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Below Popup message should get display
+"Entered Agent Aadhaar Number is wrong.Please enter valid Aadhaar Number to proceed"</t>
+  </si>
+  <si>
+    <t>2234-5678-9123</t>
+  </si>
+  <si>
+    <t>InvalidAdhar</t>
+  </si>
+  <si>
+    <t>TCALK026</t>
+  </si>
+  <si>
+    <t>Steps:
+1) Logged in user should not seeded with any aadhaar no.
+2) Enter Valid aadhar no &amp; Click on &lt;Authenticate&gt; button.</t>
+  </si>
+  <si>
+    <t>Aadhaar number XXXXXXX is successfully linked with  agent XXXXXXX"</t>
+  </si>
+  <si>
+    <t>8099-5133-4505</t>
+  </si>
+  <si>
+    <t>ValidAadhaar</t>
+  </si>
+  <si>
+    <t>TCALK027</t>
+  </si>
+  <si>
+    <t>Steps:
+1) Enter Valid aadhar no &amp; Click on &lt;Authenticate&gt; button.</t>
+  </si>
+  <si>
+    <t>Aadhaar number XXXXXXX is already seeded for agent XXXXXXX"</t>
+  </si>
+  <si>
+    <t>7834-7499-9513</t>
+  </si>
+  <si>
+    <t>ValidaAadhaar</t>
+  </si>
+  <si>
+    <t>TCALK028</t>
+  </si>
+  <si>
+    <t>TCALK029</t>
+  </si>
+  <si>
+    <t>Click on Ease Banking  &amp; select "Aadhaar Seeding &amp; Aadhaar De-Seeding" option</t>
+  </si>
+  <si>
+    <t>User should navigate to "Aadhaar Seeding &amp; Aadhaar De-Seeding" option</t>
+  </si>
+  <si>
+    <t>Pass : 17/11/2025 11:46:13 am</t>
+  </si>
+  <si>
+    <t>Pass : 17/11/2025 11:46:14 am</t>
+  </si>
+  <si>
+    <t>Pass : 17/11/2025 11:46:15 am</t>
+  </si>
+  <si>
+    <t>Pass : 17/11/2025 11:46:17 am</t>
+  </si>
+  <si>
+    <t>Pass : 17/11/2025 11:46:18 am</t>
+  </si>
+  <si>
+    <t>Pass : 17/11/2025 11:46:19 am</t>
+  </si>
+  <si>
+    <t>Pass : 17/11/2025 12:23:37 pm</t>
+  </si>
+  <si>
+    <t>Fail : 17/11/2025 12:24:08 pm</t>
+  </si>
+  <si>
+    <t>Fail : 17/11/2025 12:24:34 pm</t>
+  </si>
+  <si>
+    <t>Fail : 17/11/2025 12:24:54 pm</t>
+  </si>
+  <si>
+    <t>Fail : 17/11/2025 12:25:14 pm</t>
+  </si>
+  <si>
+    <t>Fail : 17/11/2025 12:25:25 pm</t>
+  </si>
+  <si>
+    <t>Fail : 17/11/2025 12:25:45 pm</t>
+  </si>
+  <si>
+    <t>Fail : 17/11/2025 12:26:05 pm</t>
+  </si>
+  <si>
+    <t>Fail : 17/11/2025 12:26:25 pm</t>
+  </si>
+  <si>
+    <t>Fail : 17/11/2025 12:26:45 pm</t>
+  </si>
+  <si>
+    <t>Fail : 17/11/2025 12:26:56 pm</t>
+  </si>
+  <si>
+    <t>Fail : 17/11/2025 12:27:06 pm</t>
+  </si>
+  <si>
+    <t>Fail : 17/11/2025 3:53:47 pm</t>
+  </si>
+  <si>
+    <t>Fail : 17/11/2025 3:56:38 pm</t>
+  </si>
+  <si>
+    <t>Fail : 17/11/2025 3:56:59 pm</t>
+  </si>
+  <si>
+    <t>Fail : 17/11/2025 4:48:12 pm</t>
+  </si>
+  <si>
+    <t>Fail : 17/11/2025 4:48:23 pm</t>
+  </si>
+  <si>
+    <t>Fail : 17/11/2025 4:49:53 pm</t>
+  </si>
+  <si>
+    <t>Fail : 17/11/2025 4:50:04 pm</t>
+  </si>
+  <si>
+    <t>Fail : 17/11/2025 5:00:06 pm</t>
+  </si>
+  <si>
+    <t>Fail : 17/11/2025 5:00:17 pm</t>
+  </si>
+  <si>
+    <t>Valid data '50003488117' is Entered/Selected in the focused field.</t>
+  </si>
+  <si>
+    <t>Pass : 17/11/2025 5:00:17 pm</t>
+  </si>
+  <si>
+    <t>Fail : 18/11/2025 2:48:00 pm</t>
+  </si>
+  <si>
+    <t>Fail : 18/11/2025 2:48:11 pm</t>
+  </si>
+  <si>
+    <t>Pass : 18/11/2025 2:48:11 pm</t>
+  </si>
+  <si>
+    <t>Fail : 18/11/2025 2:51:35 pm</t>
+  </si>
+  <si>
+    <t>Fail : 18/11/2025 2:51:45 pm</t>
+  </si>
+  <si>
+    <t>Fail : 18/11/2025 4:31:05 pm</t>
+  </si>
+  <si>
+    <t>Fail : 18/11/2025 4:31:15 pm</t>
+  </si>
+  <si>
+    <t>Pass : 18/11/2025 4:31:16 pm</t>
+  </si>
+  <si>
+    <t>Pass : 18/11/2025 6:08:22 pm</t>
+  </si>
+  <si>
+    <t>Pass : 18/11/2025 6:08:23 pm</t>
+  </si>
+  <si>
+    <t>Pass : 18/11/2025 6:08:24 pm</t>
+  </si>
+  <si>
+    <t>Pass : 18/11/2025 6:08:33 pm</t>
+  </si>
+  <si>
+    <t>Pass : 18/11/2025 6:08:34 pm</t>
+  </si>
+  <si>
+    <t>Pass : 18/11/2025 6:08:35 pm</t>
+  </si>
+  <si>
+    <t>Pass : 18/11/2025 6:08:36 pm</t>
+  </si>
+  <si>
+    <t>Pass : 18/11/2025 6:08:37 pm</t>
+  </si>
+  <si>
+    <t>Pass : 18/11/2025 6:08:38 pm</t>
+  </si>
+  <si>
+    <t>Pass : 18/11/2025 6:08:42 pm</t>
+  </si>
+  <si>
+    <t>Pass : 18/11/2025 6:08:43 pm</t>
+  </si>
+  <si>
+    <t>Pass : 18/11/2025 6:08:44 pm</t>
+  </si>
+  <si>
+    <t>Pass : 18/11/2025 6:08:45 pm</t>
+  </si>
+  <si>
+    <t>Pass : 18/11/2025 6:08:46 pm</t>
+  </si>
+  <si>
+    <t>Pass : 18/11/2025 6:08:47 pm</t>
+  </si>
+  <si>
+    <t>Pass : 18/11/2025 6:08:48 pm</t>
+  </si>
+  <si>
+    <t>Pass : 18/11/2025 6:08:49 pm</t>
+  </si>
+  <si>
+    <t>Fail : 18/11/2025 6:08:50 pm</t>
+  </si>
+  <si>
+    <t>Pass : 18/11/2025 6:08:51 pm</t>
+  </si>
+  <si>
+    <t>Pass : 18/11/2025 6:09:39 pm</t>
+  </si>
+  <si>
+    <t>Pass : 18/11/2025 6:09:40 pm</t>
+  </si>
+  <si>
+    <t>Pass : 18/11/2025 6:09:41 pm</t>
+  </si>
+  <si>
+    <t>Pass : 18/11/2025 6:09:46 pm</t>
+  </si>
+  <si>
+    <t>Pass : 18/11/2025 6:09:47 pm</t>
+  </si>
+  <si>
+    <t>Pass : 18/11/2025 6:09:48 pm</t>
+  </si>
+  <si>
+    <t>Pass : 18/11/2025 6:09:49 pm</t>
+  </si>
+  <si>
+    <t>Pass : 18/11/2025 6:09:50 pm</t>
+  </si>
+  <si>
+    <t>Pass : 18/11/2025 6:09:51 pm</t>
+  </si>
+  <si>
+    <t>Pass : 18/11/2025 6:09:52 pm</t>
+  </si>
+  <si>
+    <t>Pass : 18/11/2025 6:09:56 pm</t>
+  </si>
+  <si>
+    <t>Pass : 18/11/2025 6:09:57 pm</t>
+  </si>
+  <si>
+    <t>Pass : 18/11/2025 6:09:58 pm</t>
+  </si>
+  <si>
+    <t>Pass : 18/11/2025 6:09:59 pm</t>
+  </si>
+  <si>
+    <t>Pass : 18/11/2025 6:10:00 pm</t>
+  </si>
+  <si>
+    <t>Pass : 18/11/2025 6:10:01 pm</t>
+  </si>
+  <si>
+    <t>Pass : 18/11/2025 6:10:02 pm</t>
+  </si>
+  <si>
+    <t>Fail : 18/11/2025 6:10:03 pm</t>
+  </si>
+  <si>
+    <t>Fail : 18/11/2025 6:10:04 pm</t>
+  </si>
+  <si>
+    <t>Pass : 18/11/2025 6:10:04 pm</t>
+  </si>
+  <si>
+    <t>Pass : 18/11/2025 6:11:02 pm</t>
+  </si>
+  <si>
+    <t>Pass : 18/11/2025 6:11:03 pm</t>
+  </si>
+  <si>
+    <t>Pass : 18/11/2025 6:11:04 pm</t>
+  </si>
+  <si>
+    <t>Pass : 18/11/2025 6:11:05 pm</t>
+  </si>
+  <si>
+    <t>Fail : 18/11/2025 6:11:13 pm</t>
+  </si>
+  <si>
+    <t>Fail : 18/11/2025 6:11:23 pm</t>
+  </si>
+  <si>
+    <t>Fail : 18/11/2025 6:11:34 pm</t>
+  </si>
+  <si>
+    <t>Fail : 18/11/2025 6:11:44 pm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4000,8 +4417,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4072,6 +4496,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="31"/>
       </patternFill>
     </fill>
   </fills>
@@ -4218,7 +4648,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4546,9 +4976,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Excel Built-in Normal" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4826,7 +5289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L160"/>
   <sheetViews>
     <sheetView topLeftCell="A48" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -4950,7 +5413,7 @@
         <v>18</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>1196</v>
+        <v>1387</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>19</v>
@@ -4960,7 +5423,7 @@
       </c>
       <c r="L3" s="2" t="str">
         <f>LEFT(I3,4)</f>
-        <v>Pass : 08/10/2025 5:27:57 pm</v>
+        <v>Pass : 18/11/2025 6:08:22 pm</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -4987,7 +5450,7 @@
         <v>24</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>1196</v>
+        <v>1388</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>19</v>
@@ -4997,7 +5460,7 @@
       </c>
       <c r="L4" s="2" t="str">
         <f t="shared" ref="L4:L67" si="0">LEFT(I4,4)</f>
-        <v>Pass : 08/10/2025 5:27:57 pm</v>
+        <v>Pass : 18/11/2025 6:08:23 pm</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -5026,7 +5489,7 @@
         <v>295</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>1197</v>
+        <v>1388</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>19</v>
@@ -5036,7 +5499,7 @@
       </c>
       <c r="L5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:27:58 pm</v>
+        <v>Pass : 18/11/2025 6:08:23 pm</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -5063,7 +5526,7 @@
         <v>34</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>1198</v>
+        <v>1389</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>19</v>
@@ -5073,7 +5536,7 @@
       </c>
       <c r="L6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:27:59 pm</v>
+        <v>Pass : 18/11/2025 6:08:24 pm</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -5100,7 +5563,7 @@
         <v>200</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>1199</v>
+        <v>1390</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>19</v>
@@ -5110,7 +5573,7 @@
       </c>
       <c r="L7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:28:06 pm</v>
+        <v>Pass : 18/11/2025 6:08:33 pm</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -5137,7 +5600,7 @@
         <v>43</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>1200</v>
+        <v>1390</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>19</v>
@@ -5147,7 +5610,7 @@
       </c>
       <c r="L8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:28:07 pm</v>
+        <v>Pass : 18/11/2025 6:08:33 pm</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -5174,7 +5637,7 @@
         <v>43</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>1200</v>
+        <v>1391</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>19</v>
@@ -5184,7 +5647,7 @@
       </c>
       <c r="L9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:28:07 pm</v>
+        <v>Pass : 18/11/2025 6:08:34 pm</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -5211,7 +5674,7 @@
         <v>206</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>1200</v>
+        <v>1391</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>19</v>
@@ -5221,7 +5684,7 @@
       </c>
       <c r="L10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:28:07 pm</v>
+        <v>Pass : 18/11/2025 6:08:34 pm</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -5248,7 +5711,7 @@
         <v>50</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>1200</v>
+        <v>1391</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>19</v>
@@ -5258,7 +5721,7 @@
       </c>
       <c r="L11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:28:07 pm</v>
+        <v>Pass : 18/11/2025 6:08:34 pm</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -5285,7 +5748,7 @@
         <v>210</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>1200</v>
+        <v>1391</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>19</v>
@@ -5295,7 +5758,7 @@
       </c>
       <c r="L12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:28:07 pm</v>
+        <v>Pass : 18/11/2025 6:08:34 pm</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -5322,7 +5785,7 @@
         <v>212</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>1201</v>
+        <v>1391</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>19</v>
@@ -5332,7 +5795,7 @@
       </c>
       <c r="L13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:28:08 pm</v>
+        <v>Pass : 18/11/2025 6:08:34 pm</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -5359,7 +5822,7 @@
         <v>57</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>1201</v>
+        <v>1391</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>19</v>
@@ -5369,7 +5832,7 @@
       </c>
       <c r="L14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:28:08 pm</v>
+        <v>Pass : 18/11/2025 6:08:34 pm</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -5396,7 +5859,7 @@
         <v>216</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>1201</v>
+        <v>1392</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>19</v>
@@ -5406,7 +5869,7 @@
       </c>
       <c r="L15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:28:08 pm</v>
+        <v>Pass : 18/11/2025 6:08:35 pm</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -5433,7 +5896,7 @@
         <v>219</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>1201</v>
+        <v>1392</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>19</v>
@@ -5443,7 +5906,7 @@
       </c>
       <c r="L16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:28:08 pm</v>
+        <v>Pass : 18/11/2025 6:08:35 pm</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -5470,7 +5933,7 @@
         <v>219</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>1201</v>
+        <v>1392</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>19</v>
@@ -5480,7 +5943,7 @@
       </c>
       <c r="L17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:28:08 pm</v>
+        <v>Pass : 18/11/2025 6:08:35 pm</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -5507,7 +5970,7 @@
         <v>223</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>1202</v>
+        <v>1392</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>19</v>
@@ -5517,7 +5980,7 @@
       </c>
       <c r="L18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:28:09 pm</v>
+        <v>Pass : 18/11/2025 6:08:35 pm</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -5544,7 +6007,7 @@
         <v>225</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>1202</v>
+        <v>1392</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>19</v>
@@ -5554,7 +6017,7 @@
       </c>
       <c r="L19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:28:09 pm</v>
+        <v>Pass : 18/11/2025 6:08:35 pm</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -5581,7 +6044,7 @@
         <v>43</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>1202</v>
+        <v>1393</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>19</v>
@@ -5591,7 +6054,7 @@
       </c>
       <c r="L20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:28:09 pm</v>
+        <v>Pass : 18/11/2025 6:08:36 pm</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -5618,7 +6081,7 @@
         <v>229</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>1202</v>
+        <v>1393</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>19</v>
@@ -5628,7 +6091,7 @@
       </c>
       <c r="L21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:28:09 pm</v>
+        <v>Pass : 18/11/2025 6:08:36 pm</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -5655,7 +6118,7 @@
         <v>232</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>1202</v>
+        <v>1393</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>19</v>
@@ -5665,7 +6128,7 @@
       </c>
       <c r="L22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:28:09 pm</v>
+        <v>Pass : 18/11/2025 6:08:36 pm</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -5692,7 +6155,7 @@
         <v>235</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>1203</v>
+        <v>1393</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>19</v>
@@ -5702,7 +6165,7 @@
       </c>
       <c r="L23" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:28:10 pm</v>
+        <v>Pass : 18/11/2025 6:08:36 pm</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -5729,7 +6192,7 @@
         <v>237</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>1203</v>
+        <v>1393</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>19</v>
@@ -5739,7 +6202,7 @@
       </c>
       <c r="L24" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:28:10 pm</v>
+        <v>Pass : 18/11/2025 6:08:36 pm</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5766,7 +6229,7 @@
         <v>80</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>1203</v>
+        <v>1393</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>19</v>
@@ -5776,7 +6239,7 @@
       </c>
       <c r="L25" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:28:10 pm</v>
+        <v>Pass : 18/11/2025 6:08:36 pm</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5803,7 +6266,7 @@
         <v>83</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>1203</v>
+        <v>1394</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>19</v>
@@ -5813,7 +6276,7 @@
       </c>
       <c r="L26" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:28:10 pm</v>
+        <v>Pass : 18/11/2025 6:08:37 pm</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -5840,7 +6303,7 @@
         <v>86</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>1203</v>
+        <v>1394</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>19</v>
@@ -5850,7 +6313,7 @@
       </c>
       <c r="L27" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:28:10 pm</v>
+        <v>Pass : 18/11/2025 6:08:37 pm</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -5879,7 +6342,7 @@
         <v>90</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>1204</v>
+        <v>1395</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>19</v>
@@ -5889,7 +6352,7 @@
       </c>
       <c r="L28" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:28:11 pm</v>
+        <v>Pass : 18/11/2025 6:08:38 pm</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -5918,7 +6381,7 @@
         <v>94</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>1204</v>
+        <v>1395</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>19</v>
@@ -5928,7 +6391,7 @@
       </c>
       <c r="L29" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:28:11 pm</v>
+        <v>Pass : 18/11/2025 6:08:38 pm</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -5957,7 +6420,7 @@
         <v>98</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>1205</v>
+        <v>1395</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>19</v>
@@ -5967,7 +6430,7 @@
       </c>
       <c r="L30" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:28:12 pm</v>
+        <v>Pass : 18/11/2025 6:08:38 pm</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -5993,10 +6456,10 @@
         <v>17</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>1206</v>
+        <v>102</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>1207</v>
+        <v>1396</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>19</v>
@@ -6006,7 +6469,7 @@
       </c>
       <c r="L31" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:28:16 pm</v>
+        <v>Pass : 18/11/2025 6:08:42 pm</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -6035,7 +6498,7 @@
         <v>106</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>1207</v>
+        <v>1397</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>19</v>
@@ -6045,7 +6508,7 @@
       </c>
       <c r="L32" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:28:16 pm</v>
+        <v>Pass : 18/11/2025 6:08:43 pm</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -6074,7 +6537,7 @@
         <v>110</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>1208</v>
+        <v>1398</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>19</v>
@@ -6084,7 +6547,7 @@
       </c>
       <c r="L33" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:28:17 pm</v>
+        <v>Pass : 18/11/2025 6:08:44 pm</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -6113,7 +6576,7 @@
         <v>114</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>1208</v>
+        <v>1398</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>19</v>
@@ -6123,7 +6586,7 @@
       </c>
       <c r="L34" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:28:17 pm</v>
+        <v>Pass : 18/11/2025 6:08:44 pm</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -6152,7 +6615,7 @@
         <v>118</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>1209</v>
+        <v>1399</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>19</v>
@@ -6162,7 +6625,7 @@
       </c>
       <c r="L35" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:28:18 pm</v>
+        <v>Pass : 18/11/2025 6:08:45 pm</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -6191,7 +6654,7 @@
         <v>122</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>1209</v>
+        <v>1399</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>19</v>
@@ -6201,7 +6664,7 @@
       </c>
       <c r="L36" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:28:18 pm</v>
+        <v>Pass : 18/11/2025 6:08:45 pm</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -6230,7 +6693,7 @@
         <v>126</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>1209</v>
+        <v>1399</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>19</v>
@@ -6240,7 +6703,7 @@
       </c>
       <c r="L37" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:28:18 pm</v>
+        <v>Pass : 18/11/2025 6:08:45 pm</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -6269,7 +6732,7 @@
         <v>130</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>1210</v>
+        <v>1400</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>19</v>
@@ -6279,7 +6742,7 @@
       </c>
       <c r="L38" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:28:19 pm</v>
+        <v>Pass : 18/11/2025 6:08:46 pm</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -6308,7 +6771,7 @@
         <v>134</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>1210</v>
+        <v>1400</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>19</v>
@@ -6318,7 +6781,7 @@
       </c>
       <c r="L39" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:28:19 pm</v>
+        <v>Pass : 18/11/2025 6:08:46 pm</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -6347,7 +6810,7 @@
         <v>43</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>1210</v>
+        <v>1401</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>19</v>
@@ -6357,7 +6820,7 @@
       </c>
       <c r="L40" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:28:19 pm</v>
+        <v>Pass : 18/11/2025 6:08:47 pm</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -6386,7 +6849,7 @@
         <v>141</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>1211</v>
+        <v>1401</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>19</v>
@@ -6396,7 +6859,7 @@
       </c>
       <c r="L41" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:28:20 pm</v>
+        <v>Pass : 18/11/2025 6:08:47 pm</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -6425,7 +6888,7 @@
         <v>145</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>1211</v>
+        <v>1401</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>19</v>
@@ -6435,7 +6898,7 @@
       </c>
       <c r="L42" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:28:20 pm</v>
+        <v>Pass : 18/11/2025 6:08:47 pm</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -6464,7 +6927,7 @@
         <v>148</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>1211</v>
+        <v>1402</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>19</v>
@@ -6474,7 +6937,7 @@
       </c>
       <c r="L43" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:28:20 pm</v>
+        <v>Pass : 18/11/2025 6:08:48 pm</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -6503,7 +6966,7 @@
         <v>151</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>1212</v>
+        <v>1403</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>19</v>
@@ -6513,7 +6976,7 @@
       </c>
       <c r="L44" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:28:21 pm</v>
+        <v>Pass : 18/11/2025 6:08:49 pm</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -6542,7 +7005,7 @@
         <v>154</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>1212</v>
+        <v>1403</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>19</v>
@@ -6552,7 +7015,7 @@
       </c>
       <c r="L45" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:28:21 pm</v>
+        <v>Pass : 18/11/2025 6:08:49 pm</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -6581,7 +7044,7 @@
         <v>157</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>1212</v>
+        <v>1403</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>19</v>
@@ -6591,7 +7054,7 @@
       </c>
       <c r="L46" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:28:21 pm</v>
+        <v>Pass : 18/11/2025 6:08:49 pm</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -6620,7 +7083,7 @@
         <v>160</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>1212</v>
+        <v>1403</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>19</v>
@@ -6630,7 +7093,7 @@
       </c>
       <c r="L47" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:28:21 pm</v>
+        <v>Pass : 18/11/2025 6:08:49 pm</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -6659,7 +7122,7 @@
         <v>148</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>1212</v>
+        <v>1403</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>19</v>
@@ -6669,7 +7132,7 @@
       </c>
       <c r="L48" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:28:21 pm</v>
+        <v>Pass : 18/11/2025 6:08:49 pm</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -6698,7 +7161,7 @@
         <v>195</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>1213</v>
+        <v>1404</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>19</v>
@@ -6708,7 +7171,7 @@
       </c>
       <c r="L49" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Fail : 08/10/2025 5:28:22 pm</v>
+        <v>Fail : 18/11/2025 6:08:50 pm</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -6734,10 +7197,10 @@
         <v>17</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>1214</v>
+        <v>1405</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>19</v>
@@ -6747,7 +7210,7 @@
       </c>
       <c r="L50" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Fail : 08/10/2025 5:28:24 pm</v>
+        <v>Pass : 18/11/2025 6:08:51 pm</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -6776,7 +7239,7 @@
         <v>172</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>1215</v>
+        <v>1405</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>19</v>
@@ -6786,7 +7249,7 @@
       </c>
       <c r="L51" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:28:24 pm</v>
+        <v>Pass : 18/11/2025 6:08:51 pm</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -6815,7 +7278,7 @@
         <v>175</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>1216</v>
+        <v>1163</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>19</v>
@@ -6854,7 +7317,7 @@
         <v>179</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>1217</v>
+        <v>1164</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>19</v>
@@ -6893,7 +7356,7 @@
         <v>183</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>1218</v>
+        <v>1165</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>19</v>
@@ -10946,10 +11409,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E56 E109" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E56 E109">
       <formula1>"50003490170,30002698453"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5">
       <formula1>"90004391023,85002400164"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10958,11 +11421,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10974,8 +11437,8 @@
     <col min="5" max="5" bestFit="true" customWidth="true" style="3" width="26.0" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="25.5703125" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="54" width="26.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="20.85546875" collapsed="true"/>
     <col min="10" max="10" customWidth="true" width="18.42578125" collapsed="true"/>
     <col min="11" max="11" customWidth="true" width="13.42578125" collapsed="true"/>
     <col min="12" max="12" customWidth="true" width="14.0" collapsed="true"/>
@@ -11025,10 +11488,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>3</v>
@@ -11055,36 +11518,36 @@
         <v>9</v>
       </c>
       <c r="L2" s="26" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="102" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B3" s="102" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C3" s="102" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D3" s="102" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F3" s="103" t="s">
+        <v>1094</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="113" t="s">
         <v>1095</v>
       </c>
-      <c r="B3" s="102" t="s">
+      <c r="I3" s="33" t="s">
         <v>1096</v>
-      </c>
-      <c r="C3" s="102" t="s">
-        <v>1097</v>
-      </c>
-      <c r="D3" s="102" t="s">
-        <v>1098</v>
-      </c>
-      <c r="E3" s="59" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F3" s="103" t="s">
-        <v>1100</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="73" t="s">
-        <v>1101</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>1102</v>
       </c>
       <c r="J3" s="25" t="s">
         <v>20</v>
@@ -11099,31 +11562,31 @@
     </row>
     <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="102" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="B4" s="33" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C4" s="104" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D4" s="105" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="113" t="s">
+        <v>1102</v>
+      </c>
+      <c r="I4" s="33" t="s">
         <v>1096</v>
-      </c>
-      <c r="C4" s="104" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D4" s="105" t="s">
-        <v>1105</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>1106</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>1107</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="73" t="s">
-        <v>1108</v>
-      </c>
-      <c r="I4" s="33" t="s">
-        <v>1102</v>
       </c>
       <c r="J4" s="58" t="s">
         <v>20</v>
@@ -11138,31 +11601,31 @@
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="102" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="B5" s="102" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="C5" s="102" t="s">
         <v>569</v>
       </c>
       <c r="D5" s="102" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="E5" s="59" t="s">
         <v>120</v>
       </c>
       <c r="F5" s="106" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="G5" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="73" t="s">
+      <c r="H5" s="113" t="s">
         <v>572</v>
       </c>
       <c r="I5" s="33" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="J5" s="58" t="s">
         <v>20</v>
@@ -11177,19 +11640,19 @@
     </row>
     <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="102" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="B6" s="102" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="C6" s="105" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
       <c r="D6" s="105" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="E6" s="59" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
       <c r="F6" s="107" t="s">
         <v>592</v>
@@ -11197,11 +11660,11 @@
       <c r="G6" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="73" t="s">
-        <v>1116</v>
+      <c r="H6" s="113" t="s">
+        <v>1110</v>
       </c>
       <c r="I6" s="33" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="J6" s="58" t="s">
         <v>20</v>
@@ -11216,31 +11679,31 @@
     </row>
     <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="102" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="B7" s="102" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="C7" s="102" t="s">
         <v>569</v>
       </c>
       <c r="D7" s="102" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="E7" s="59" t="s">
         <v>120</v>
       </c>
       <c r="F7" s="106" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="G7" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="73" t="s">
+      <c r="H7" s="113" t="s">
         <v>572</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="J7" s="58" t="s">
         <v>20</v>
@@ -11255,29 +11718,29 @@
     </row>
     <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="102" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="B8" s="102" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="C8" s="102" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="D8" s="102" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
       <c r="E8" s="59"/>
       <c r="F8" s="106" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="G8" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="73" t="s">
-        <v>918</v>
+      <c r="H8" s="113" t="s">
+        <v>912</v>
       </c>
       <c r="I8" s="33" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="J8" s="58" t="s">
         <v>20</v>
@@ -11290,33 +11753,33 @@
         <v>Pass</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="102" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="B9" s="102" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="C9" s="102" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="D9" s="102" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
       <c r="E9" s="59" t="s">
         <v>120</v>
       </c>
       <c r="F9" s="59" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="G9" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="73" t="s">
-        <v>924</v>
+      <c r="H9" s="113" t="s">
+        <v>918</v>
       </c>
       <c r="I9" s="33" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="J9" s="58" t="s">
         <v>20</v>
@@ -11329,31 +11792,31 @@
         <v>Pass</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="102" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
       <c r="B10" s="102" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="C10" s="102" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
       <c r="D10" s="102" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
       <c r="E10" s="59"/>
       <c r="F10" s="59" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="G10" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="73" t="s">
+      <c r="H10" s="113" t="s">
         <v>195</v>
       </c>
       <c r="I10" s="33" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
       <c r="J10" s="58" t="s">
         <v>20</v>
@@ -11368,10 +11831,10 @@
     </row>
     <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="102" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="B11" s="102" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="C11" s="102" t="s">
         <v>569</v>
@@ -11383,16 +11846,16 @@
         <v>120</v>
       </c>
       <c r="F11" s="106" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="G11" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="73" t="s">
+      <c r="H11" s="113" t="s">
         <v>572</v>
       </c>
       <c r="I11" s="33" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
       <c r="J11" s="58" t="s">
         <v>20</v>
@@ -11407,19 +11870,19 @@
     </row>
     <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="102" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
       <c r="B12" s="102" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="C12" s="102" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
       <c r="D12" s="102" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
       <c r="E12" s="59" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="F12" s="108" t="s">
         <v>627</v>
@@ -11427,11 +11890,11 @@
       <c r="G12" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="73" t="s">
+      <c r="H12" s="113" t="s">
         <v>572</v>
       </c>
       <c r="I12" s="33" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
       <c r="J12" s="58" t="s">
         <v>20</v>
@@ -11450,8 +11913,1198 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M31"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="15.0"/>
+    <col min="2" max="2" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="122" width="45.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="122" width="54.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.28515625"/>
+    <col min="7" max="7" customWidth="true" width="34.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="54" width="38.28515625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="17.85546875" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="114">
+        <v>0</v>
+      </c>
+      <c r="B1" s="114">
+        <v>1</v>
+      </c>
+      <c r="C1" s="114">
+        <v>2</v>
+      </c>
+      <c r="D1" s="114">
+        <v>3</v>
+      </c>
+      <c r="E1" s="114">
+        <v>4</v>
+      </c>
+      <c r="F1" s="114">
+        <v>5</v>
+      </c>
+      <c r="G1" s="114">
+        <v>6</v>
+      </c>
+      <c r="H1" s="114">
+        <v>7</v>
+      </c>
+      <c r="I1" s="114">
+        <v>8</v>
+      </c>
+      <c r="J1" s="114">
+        <v>9</v>
+      </c>
+      <c r="K1" s="114">
+        <v>10</v>
+      </c>
+      <c r="L1" s="115">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="116" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="109" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="109" t="s">
+        <v>685</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="109" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="26" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="116" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>1349</v>
+      </c>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="42" t="s">
+        <v>693</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="123"/>
+      <c r="J3" s="33" t="s">
+        <v>1259</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="33" t="str">
+        <f>(LEFT(J3, 4))</f>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C4" s="105" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D4" s="105" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F4" s="40"/>
+      <c r="G4" s="117" t="s">
+        <v>1257</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="54" t="s">
+        <v>1258</v>
+      </c>
+      <c r="J4" s="33" t="s">
+        <v>1259</v>
+      </c>
+      <c r="K4" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="33" t="str">
+        <f>(LEFT(J4, 4))</f>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C5" s="105" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D5" s="105" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E5" s="33"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="33" t="s">
+        <v>1254</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="54" t="s">
+        <v>1262</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>1259</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="33" t="str">
+        <f t="shared" ref="L5:L31" si="0">(LEFT(J5, 4))</f>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C6" s="105" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D6" s="105" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>1264</v>
+      </c>
+      <c r="G6" s="107" t="s">
+        <v>592</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="54" t="s">
+        <v>1110</v>
+      </c>
+      <c r="J6" s="33" t="s">
+        <v>1265</v>
+      </c>
+      <c r="K6" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C7" s="105" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D7" s="105" t="s">
+        <v>1268</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>1264</v>
+      </c>
+      <c r="G7" s="107" t="s">
+        <v>642</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="54" t="s">
+        <v>1269</v>
+      </c>
+      <c r="J7" s="33" t="s">
+        <v>1265</v>
+      </c>
+      <c r="K7" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C8" s="105" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D8" s="105" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E8" s="107" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F8" s="40"/>
+      <c r="G8" s="33" t="s">
+        <v>1274</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="54" t="s">
+        <v>1275</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>1276</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>Fail</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C9" s="105" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D9" s="105" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>1280</v>
+      </c>
+      <c r="F9" s="40"/>
+      <c r="G9" s="107" t="s">
+        <v>1281</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="54" t="s">
+        <v>1282</v>
+      </c>
+      <c r="J9" s="33" t="s">
+        <v>1283</v>
+      </c>
+      <c r="K9" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="33" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C10" s="102" t="s">
+        <v>569</v>
+      </c>
+      <c r="D10" s="102" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10" s="40"/>
+      <c r="G10" s="106" t="s">
+        <v>571</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="54" t="s">
+        <v>1285</v>
+      </c>
+      <c r="J10" s="33" t="s">
+        <v>1286</v>
+      </c>
+      <c r="K10" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>Pass</v>
+      </c>
+      <c r="M10" s="0"/>
+    </row>
+    <row r="11" spans="1:13" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="33" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C11" s="105" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D11" s="105" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E11" s="118" t="s">
+        <v>163</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>1264</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>623</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="54" t="s">
+        <v>1290</v>
+      </c>
+      <c r="J11" s="33" t="s">
+        <v>1291</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="33" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C12" s="102" t="s">
+        <v>569</v>
+      </c>
+      <c r="D12" s="102" t="s">
+        <v>570</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="F12" s="40"/>
+      <c r="G12" s="59" t="s">
+        <v>1293</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="54" t="s">
+        <v>1294</v>
+      </c>
+      <c r="J12" s="33" t="s">
+        <v>1295</v>
+      </c>
+      <c r="K12" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="33" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C13" s="102" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D13" s="102" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="F13" s="40"/>
+      <c r="G13" s="59" t="s">
+        <v>911</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="54" t="s">
+        <v>1297</v>
+      </c>
+      <c r="J13" s="33" t="s">
+        <v>1298</v>
+      </c>
+      <c r="K13" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>Fail</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="33" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C14" s="102" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D14" s="102" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="F14" s="40"/>
+      <c r="G14" s="59" t="s">
+        <v>917</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="54" t="s">
+        <v>1297</v>
+      </c>
+      <c r="J14" s="33" t="s">
+        <v>1300</v>
+      </c>
+      <c r="K14" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>Fail</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="33" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C15" s="102" t="s">
+        <v>569</v>
+      </c>
+      <c r="D15" s="102" t="s">
+        <v>570</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="40"/>
+      <c r="G15" s="106" t="s">
+        <v>1302</v>
+      </c>
+      <c r="H15" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="54" t="s">
+        <v>1275</v>
+      </c>
+      <c r="J15" s="33" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K15" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>Fail</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="33" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C16" s="102" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D16" s="102" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F16" s="40"/>
+      <c r="G16" s="108" t="s">
+        <v>627</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="54" t="s">
+        <v>1307</v>
+      </c>
+      <c r="J16" s="33" t="s">
+        <v>1308</v>
+      </c>
+      <c r="K16" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="33" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C17" s="105" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D17" s="105" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F17" s="40"/>
+      <c r="G17" s="117" t="s">
+        <v>1257</v>
+      </c>
+      <c r="H17" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="54" t="s">
+        <v>1258</v>
+      </c>
+      <c r="J17" s="33" t="s">
+        <v>1309</v>
+      </c>
+      <c r="K17" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="33" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C18" s="105" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D18" s="105" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E18" s="33"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="117" t="s">
+        <v>1312</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="54" t="s">
+        <v>1258</v>
+      </c>
+      <c r="J18" s="33" t="s">
+        <v>1309</v>
+      </c>
+      <c r="K18" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="33" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C19" s="105" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D19" s="105" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F19" s="40" t="s">
+        <v>1264</v>
+      </c>
+      <c r="G19" s="107" t="s">
+        <v>592</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="54" t="s">
+        <v>1110</v>
+      </c>
+      <c r="J19" s="33" t="s">
+        <v>1309</v>
+      </c>
+      <c r="K19" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="70" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="33" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C20" s="105" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D20" s="105" t="s">
+        <v>1268</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="F20" s="40" t="s">
+        <v>1264</v>
+      </c>
+      <c r="G20" s="107" t="s">
+        <v>642</v>
+      </c>
+      <c r="H20" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="54" t="s">
+        <v>195</v>
+      </c>
+      <c r="J20" s="33" t="s">
+        <v>1309</v>
+      </c>
+      <c r="K20" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="70" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="33" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C21" s="102" t="s">
+        <v>569</v>
+      </c>
+      <c r="D21" s="102" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" s="23"/>
+      <c r="G21" s="106" t="s">
+        <v>571</v>
+      </c>
+      <c r="H21" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="54" t="s">
+        <v>1285</v>
+      </c>
+      <c r="J21" s="33" t="s">
+        <v>1309</v>
+      </c>
+      <c r="K21" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="33" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C22" s="105" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D22" s="105" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E22" s="118" t="s">
+        <v>903</v>
+      </c>
+      <c r="F22" s="40" t="s">
+        <v>1264</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>623</v>
+      </c>
+      <c r="H22" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="54" t="s">
+        <v>1290</v>
+      </c>
+      <c r="J22" s="33" t="s">
+        <v>1309</v>
+      </c>
+      <c r="K22" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="33" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C23" s="102" t="s">
+        <v>569</v>
+      </c>
+      <c r="D23" s="102" t="s">
+        <v>570</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="F23" s="40"/>
+      <c r="G23" s="59" t="s">
+        <v>1293</v>
+      </c>
+      <c r="H23" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="54" t="s">
+        <v>1294</v>
+      </c>
+      <c r="J23" s="33" t="s">
+        <v>1309</v>
+      </c>
+      <c r="K23" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="33" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C24" s="102" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D24" s="102" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="F24" s="40"/>
+      <c r="G24" s="59" t="s">
+        <v>911</v>
+      </c>
+      <c r="H24" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="54" t="s">
+        <v>912</v>
+      </c>
+      <c r="J24" s="33" t="s">
+        <v>1309</v>
+      </c>
+      <c r="K24" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="33" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C25" s="102" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D25" s="102" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="G25" s="59" t="s">
+        <v>917</v>
+      </c>
+      <c r="H25" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="54" t="s">
+        <v>918</v>
+      </c>
+      <c r="J25" s="33" t="s">
+        <v>1309</v>
+      </c>
+      <c r="K25" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="L25" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="33" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C26" s="102" t="s">
+        <v>569</v>
+      </c>
+      <c r="D26" s="102" t="s">
+        <v>570</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="F26" s="40"/>
+      <c r="G26" s="106" t="s">
+        <v>1293</v>
+      </c>
+      <c r="H26" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="54" t="s">
+        <v>1294</v>
+      </c>
+      <c r="J26" s="33" t="s">
+        <v>1309</v>
+      </c>
+      <c r="K26" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="33" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C27" s="102" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D27" s="102" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>1324</v>
+      </c>
+      <c r="F27" s="40"/>
+      <c r="G27" s="108" t="s">
+        <v>627</v>
+      </c>
+      <c r="H27" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="54" t="s">
+        <v>1324</v>
+      </c>
+      <c r="J27" s="33" t="s">
+        <v>1309</v>
+      </c>
+      <c r="K27" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="33" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C28" s="105" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D28" s="105" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E28" s="33" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F28" s="40" t="s">
+        <v>1264</v>
+      </c>
+      <c r="G28" s="33" t="s">
+        <v>1329</v>
+      </c>
+      <c r="H28" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="54" t="s">
+        <v>1330</v>
+      </c>
+      <c r="J28" s="33" t="s">
+        <v>1309</v>
+      </c>
+      <c r="K28" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="L28" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="33" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C29" s="105" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D29" s="105" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>1334</v>
+      </c>
+      <c r="F29" s="40" t="s">
+        <v>1264</v>
+      </c>
+      <c r="G29" s="33" t="s">
+        <v>1335</v>
+      </c>
+      <c r="H29" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="54" t="s">
+        <v>195</v>
+      </c>
+      <c r="J29" s="33" t="s">
+        <v>1309</v>
+      </c>
+      <c r="K29" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="L29" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A30" s="33" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C30" s="119" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D30" s="119" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E30" s="120" t="s">
+        <v>1339</v>
+      </c>
+      <c r="F30" s="40" t="s">
+        <v>1264</v>
+      </c>
+      <c r="G30" s="121" t="s">
+        <v>1340</v>
+      </c>
+      <c r="H30" s="121" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="54" t="s">
+        <v>195</v>
+      </c>
+      <c r="J30" s="33" t="s">
+        <v>1309</v>
+      </c>
+      <c r="K30" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="L30" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="33" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C31" s="105" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D31" s="105" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E31" s="118" t="s">
+        <v>1344</v>
+      </c>
+      <c r="F31" s="40" t="s">
+        <v>1264</v>
+      </c>
+      <c r="G31" s="33" t="s">
+        <v>1345</v>
+      </c>
+      <c r="H31" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="54" t="s">
+        <v>195</v>
+      </c>
+      <c r="J31" s="33" t="s">
+        <v>1309</v>
+      </c>
+      <c r="K31" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="L31" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>Pass</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L108"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -11575,7 +13228,7 @@
         <v>18</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>1219</v>
+        <v>1406</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>19</v>
@@ -11585,7 +13238,7 @@
       </c>
       <c r="L3" s="2" t="str">
         <f>LEFT(I3,4)</f>
-        <v>Pass : 08/10/2025 5:32:27 pm</v>
+        <v>Pass : 18/11/2025 6:09:39 pm</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -11612,7 +13265,7 @@
         <v>293</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>1219</v>
+        <v>1407</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>19</v>
@@ -11622,7 +13275,7 @@
       </c>
       <c r="L4" s="2" t="str">
         <f t="shared" ref="L4:L68" si="0">LEFT(I4,4)</f>
-        <v>Pass : 08/10/2025 5:32:27 pm</v>
+        <v>Pass : 18/11/2025 6:09:40 pm</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -11651,7 +13304,7 @@
         <v>295</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>1219</v>
+        <v>1407</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>19</v>
@@ -11661,7 +13314,7 @@
       </c>
       <c r="L5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:32:27 pm</v>
+        <v>Pass : 18/11/2025 6:09:40 pm</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -11688,7 +13341,7 @@
         <v>34</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>1220</v>
+        <v>1408</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>19</v>
@@ -11698,7 +13351,7 @@
       </c>
       <c r="L6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:32:28 pm</v>
+        <v>Pass : 18/11/2025 6:09:41 pm</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -11725,7 +13378,7 @@
         <v>200</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>1221</v>
+        <v>1409</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>19</v>
@@ -11735,7 +13388,7 @@
       </c>
       <c r="L7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:32:34 pm</v>
+        <v>Pass : 18/11/2025 6:09:46 pm</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -11762,7 +13415,7 @@
         <v>43</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>1221</v>
+        <v>1410</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>19</v>
@@ -11772,7 +13425,7 @@
       </c>
       <c r="L8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:32:34 pm</v>
+        <v>Pass : 18/11/2025 6:09:47 pm</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -11799,7 +13452,7 @@
         <v>43</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>1221</v>
+        <v>1410</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>19</v>
@@ -11809,7 +13462,7 @@
       </c>
       <c r="L9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:32:34 pm</v>
+        <v>Pass : 18/11/2025 6:09:47 pm</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -11836,7 +13489,7 @@
         <v>206</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>1221</v>
+        <v>1410</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>19</v>
@@ -11846,7 +13499,7 @@
       </c>
       <c r="L10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:32:34 pm</v>
+        <v>Pass : 18/11/2025 6:09:47 pm</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -11873,7 +13526,7 @@
         <v>50</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>1222</v>
+        <v>1410</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>19</v>
@@ -11883,7 +13536,7 @@
       </c>
       <c r="L11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:32:35 pm</v>
+        <v>Pass : 18/11/2025 6:09:47 pm</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -11910,7 +13563,7 @@
         <v>210</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>1222</v>
+        <v>1410</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>19</v>
@@ -11920,7 +13573,7 @@
       </c>
       <c r="L12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:32:35 pm</v>
+        <v>Pass : 18/11/2025 6:09:47 pm</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -11947,7 +13600,7 @@
         <v>212</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>1222</v>
+        <v>1410</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>19</v>
@@ -11957,7 +13610,7 @@
       </c>
       <c r="L13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:32:35 pm</v>
+        <v>Pass : 18/11/2025 6:09:47 pm</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -11984,7 +13637,7 @@
         <v>57</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>1222</v>
+        <v>1411</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>19</v>
@@ -11994,7 +13647,7 @@
       </c>
       <c r="L14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:32:35 pm</v>
+        <v>Pass : 18/11/2025 6:09:48 pm</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -12021,7 +13674,7 @@
         <v>216</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>1222</v>
+        <v>1411</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>19</v>
@@ -12031,7 +13684,7 @@
       </c>
       <c r="L15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:32:35 pm</v>
+        <v>Pass : 18/11/2025 6:09:48 pm</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -12058,7 +13711,7 @@
         <v>219</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>1223</v>
+        <v>1411</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>19</v>
@@ -12068,7 +13721,7 @@
       </c>
       <c r="L16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:32:36 pm</v>
+        <v>Pass : 18/11/2025 6:09:48 pm</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -12095,7 +13748,7 @@
         <v>219</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>1223</v>
+        <v>1411</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>19</v>
@@ -12105,7 +13758,7 @@
       </c>
       <c r="L17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:32:36 pm</v>
+        <v>Pass : 18/11/2025 6:09:48 pm</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -12132,7 +13785,7 @@
         <v>223</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>1223</v>
+        <v>1411</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>19</v>
@@ -12142,7 +13795,7 @@
       </c>
       <c r="L18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:32:36 pm</v>
+        <v>Pass : 18/11/2025 6:09:48 pm</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -12169,7 +13822,7 @@
         <v>225</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>1223</v>
+        <v>1412</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>19</v>
@@ -12179,7 +13832,7 @@
       </c>
       <c r="L19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:32:36 pm</v>
+        <v>Pass : 18/11/2025 6:09:49 pm</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -12206,7 +13859,7 @@
         <v>43</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>1223</v>
+        <v>1412</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>19</v>
@@ -12216,7 +13869,7 @@
       </c>
       <c r="L20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:32:36 pm</v>
+        <v>Pass : 18/11/2025 6:09:49 pm</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -12243,7 +13896,7 @@
         <v>229</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>1224</v>
+        <v>1412</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>19</v>
@@ -12253,7 +13906,7 @@
       </c>
       <c r="L21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:32:37 pm</v>
+        <v>Pass : 18/11/2025 6:09:49 pm</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -12280,7 +13933,7 @@
         <v>232</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>1224</v>
+        <v>1412</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>19</v>
@@ -12290,7 +13943,7 @@
       </c>
       <c r="L22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:32:37 pm</v>
+        <v>Pass : 18/11/2025 6:09:49 pm</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -12317,7 +13970,7 @@
         <v>235</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>1224</v>
+        <v>1412</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>19</v>
@@ -12327,7 +13980,7 @@
       </c>
       <c r="L23" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:32:37 pm</v>
+        <v>Pass : 18/11/2025 6:09:49 pm</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -12354,7 +14007,7 @@
         <v>237</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>1224</v>
+        <v>1412</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>19</v>
@@ -12364,7 +14017,7 @@
       </c>
       <c r="L24" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:32:37 pm</v>
+        <v>Pass : 18/11/2025 6:09:49 pm</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -12391,7 +14044,7 @@
         <v>122</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>1225</v>
+        <v>1413</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>19</v>
@@ -12401,7 +14054,7 @@
       </c>
       <c r="L25" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:32:38 pm</v>
+        <v>Pass : 18/11/2025 6:09:50 pm</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -12467,7 +14120,7 @@
         <v>83</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>1225</v>
+        <v>1413</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>19</v>
@@ -12477,7 +14130,7 @@
       </c>
       <c r="L27" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:32:38 pm</v>
+        <v>Pass : 18/11/2025 6:09:50 pm</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -12504,7 +14157,7 @@
         <v>86</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>1225</v>
+        <v>1413</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>19</v>
@@ -12514,7 +14167,7 @@
       </c>
       <c r="L28" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:32:38 pm</v>
+        <v>Pass : 18/11/2025 6:09:50 pm</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -12543,7 +14196,7 @@
         <v>90</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>1226</v>
+        <v>1414</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>19</v>
@@ -12553,7 +14206,7 @@
       </c>
       <c r="L29" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:32:39 pm</v>
+        <v>Pass : 18/11/2025 6:09:51 pm</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -12582,7 +14235,7 @@
         <v>94</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>1226</v>
+        <v>1414</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>19</v>
@@ -12592,7 +14245,7 @@
       </c>
       <c r="L30" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:32:39 pm</v>
+        <v>Pass : 18/11/2025 6:09:51 pm</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -12621,7 +14274,7 @@
         <v>98</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>1226</v>
+        <v>1415</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>19</v>
@@ -12631,7 +14284,7 @@
       </c>
       <c r="L31" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:32:39 pm</v>
+        <v>Pass : 18/11/2025 6:09:52 pm</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -12657,10 +14310,10 @@
         <v>17</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>1206</v>
+        <v>1236</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>1227</v>
+        <v>1416</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>19</v>
@@ -12670,7 +14323,7 @@
       </c>
       <c r="L32" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:32:44 pm</v>
+        <v>Pass : 18/11/2025 6:09:56 pm</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -12699,7 +14352,7 @@
         <v>106</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>1227</v>
+        <v>1417</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>19</v>
@@ -12709,7 +14362,7 @@
       </c>
       <c r="L33" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:32:44 pm</v>
+        <v>Pass : 18/11/2025 6:09:57 pm</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -12738,7 +14391,7 @@
         <v>110</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>1228</v>
+        <v>1418</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>19</v>
@@ -12748,7 +14401,7 @@
       </c>
       <c r="L34" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:32:45 pm</v>
+        <v>Pass : 18/11/2025 6:09:58 pm</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -12777,7 +14430,7 @@
         <v>114</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>1228</v>
+        <v>1418</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>19</v>
@@ -12787,7 +14440,7 @@
       </c>
       <c r="L35" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:32:45 pm</v>
+        <v>Pass : 18/11/2025 6:09:58 pm</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -12816,7 +14469,7 @@
         <v>118</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>1228</v>
+        <v>1418</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>19</v>
@@ -12826,7 +14479,7 @@
       </c>
       <c r="L36" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:32:45 pm</v>
+        <v>Pass : 18/11/2025 6:09:58 pm</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -12855,7 +14508,7 @@
         <v>122</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>1229</v>
+        <v>1419</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>19</v>
@@ -12865,7 +14518,7 @@
       </c>
       <c r="L37" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:32:46 pm</v>
+        <v>Pass : 18/11/2025 6:09:59 pm</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -12894,7 +14547,7 @@
         <v>126</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>1229</v>
+        <v>1419</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>19</v>
@@ -12904,7 +14557,7 @@
       </c>
       <c r="L38" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:32:46 pm</v>
+        <v>Pass : 18/11/2025 6:09:59 pm</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -12933,7 +14586,7 @@
         <v>130</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>1229</v>
+        <v>1420</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>19</v>
@@ -12943,7 +14596,7 @@
       </c>
       <c r="L39" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:32:46 pm</v>
+        <v>Pass : 18/11/2025 6:10:00 pm</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -12972,7 +14625,7 @@
         <v>134</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>1230</v>
+        <v>1420</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>19</v>
@@ -12982,7 +14635,7 @@
       </c>
       <c r="L40" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:32:47 pm</v>
+        <v>Pass : 18/11/2025 6:10:00 pm</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -13011,7 +14664,7 @@
         <v>43</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>1230</v>
+        <v>1421</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>19</v>
@@ -13021,7 +14674,7 @@
       </c>
       <c r="L41" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:32:47 pm</v>
+        <v>Pass : 18/11/2025 6:10:01 pm</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -13050,7 +14703,7 @@
         <v>141</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>1231</v>
+        <v>1421</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>19</v>
@@ -13060,7 +14713,7 @@
       </c>
       <c r="L42" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:32:48 pm</v>
+        <v>Pass : 18/11/2025 6:10:01 pm</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -13089,7 +14742,7 @@
         <v>145</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>1231</v>
+        <v>1421</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>19</v>
@@ -13099,7 +14752,7 @@
       </c>
       <c r="L43" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:32:48 pm</v>
+        <v>Pass : 18/11/2025 6:10:01 pm</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -13128,7 +14781,7 @@
         <v>148</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>1231</v>
+        <v>1421</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>19</v>
@@ -13138,7 +14791,7 @@
       </c>
       <c r="L44" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:32:48 pm</v>
+        <v>Pass : 18/11/2025 6:10:01 pm</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -13167,7 +14820,7 @@
         <v>151</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>1231</v>
+        <v>1422</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>19</v>
@@ -13177,7 +14830,7 @@
       </c>
       <c r="L45" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:32:48 pm</v>
+        <v>Pass : 18/11/2025 6:10:02 pm</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -13206,7 +14859,7 @@
         <v>760</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>1232</v>
+        <v>1422</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>19</v>
@@ -13216,7 +14869,7 @@
       </c>
       <c r="L46" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:32:49 pm</v>
+        <v>Pass : 18/11/2025 6:10:02 pm</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -13245,7 +14898,7 @@
         <v>761</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>1232</v>
+        <v>1422</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>19</v>
@@ -13255,7 +14908,7 @@
       </c>
       <c r="L47" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:32:49 pm</v>
+        <v>Pass : 18/11/2025 6:10:02 pm</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -13284,7 +14937,7 @@
         <v>760</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>1232</v>
+        <v>1422</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>19</v>
@@ -13294,7 +14947,7 @@
       </c>
       <c r="L48" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:32:49 pm</v>
+        <v>Pass : 18/11/2025 6:10:02 pm</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -13323,7 +14976,7 @@
         <v>148</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>1232</v>
+        <v>1422</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>19</v>
@@ -13333,7 +14986,7 @@
       </c>
       <c r="L49" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:32:49 pm</v>
+        <v>Pass : 18/11/2025 6:10:02 pm</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -13362,7 +15015,7 @@
         <v>195</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>1233</v>
+        <v>1423</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>19</v>
@@ -13372,10 +15025,10 @@
       </c>
       <c r="L50" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Fail : 08/10/2025 5:32:49 pm</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>Fail : 18/11/2025 6:10:03 pm</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>373</v>
       </c>
@@ -13401,7 +15054,7 @@
         <v>195</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>1234</v>
+        <v>1424</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>19</v>
@@ -13411,7 +15064,7 @@
       </c>
       <c r="L51" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Fail : 08/10/2025 5:32:51 pm</v>
+        <v>Fail : 18/11/2025 6:10:04 pm</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -13440,7 +15093,7 @@
         <v>172</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>1235</v>
+        <v>1425</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>19</v>
@@ -13450,7 +15103,7 @@
       </c>
       <c r="L52" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:32:52 pm</v>
+        <v>Pass : 18/11/2025 6:10:04 pm</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -13479,7 +15132,7 @@
         <v>175</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>1236</v>
+        <v>1246</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>19</v>
@@ -13489,7 +15142,7 @@
       </c>
       <c r="L53" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:33:02 pm</v>
+        <v>Pass : 12/11/2025 5:28:30 pm</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -13518,7 +15171,7 @@
         <v>179</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>1237</v>
+        <v>1247</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>19</v>
@@ -13528,7 +15181,7 @@
       </c>
       <c r="L54" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 5:33:16 pm</v>
+        <v>Pass : 12/11/2025 5:28:47 pm</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -13557,7 +15210,7 @@
         <v>195</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>1238</v>
+        <v>1166</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>19</v>
@@ -15591,10 +17244,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E57" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E57">
       <formula1>"50003490170,30002698453"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5">
       <formula1>"90004391023,85002400164"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15603,10 +17256,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L108"/>
   <sheetViews>
-    <sheetView topLeftCell="C55" workbookViewId="0">
+    <sheetView topLeftCell="A56" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="J56" sqref="J56:J108"/>
     </sheetView>
   </sheetViews>
@@ -15727,7 +17380,7 @@
         <v>18</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>1239</v>
+        <v>1426</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>19</v>
@@ -15737,7 +17390,7 @@
       </c>
       <c r="L3" s="1" t="str">
         <f>LEFT(I3,4)</f>
-        <v>Pass : 08/10/2025 6:31:41 pm</v>
+        <v>Pass : 18/11/2025 6:11:02 pm</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -15764,7 +17417,7 @@
         <v>293</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>1240</v>
+        <v>1427</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>19</v>
@@ -15774,7 +17427,7 @@
       </c>
       <c r="L4" s="1" t="str">
         <f t="shared" ref="L4:L68" si="0">LEFT(I4,4)</f>
-        <v>Pass : 08/10/2025 6:31:42 pm</v>
+        <v>Pass : 18/11/2025 6:11:03 pm</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -15803,7 +17456,7 @@
         <v>295</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>1240</v>
+        <v>1428</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>19</v>
@@ -15813,7 +17466,7 @@
       </c>
       <c r="L5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 6:31:42 pm</v>
+        <v>Pass : 18/11/2025 6:11:04 pm</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -15840,7 +17493,7 @@
         <v>34</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>1241</v>
+        <v>1429</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>19</v>
@@ -15850,7 +17503,7 @@
       </c>
       <c r="L6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 08/10/2025 6:31:43 pm</v>
+        <v>Pass : 18/11/2025 6:11:05 pm</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -15877,7 +17530,7 @@
         <v>195</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>1242</v>
+        <v>1430</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>19</v>
@@ -15887,7 +17540,7 @@
       </c>
       <c r="L7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Fail : 08/10/2025 6:31:51 pm</v>
+        <v>Fail : 18/11/2025 6:11:13 pm</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -15914,7 +17567,7 @@
         <v>195</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>1149</v>
+        <v>1431</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>19</v>
@@ -15924,7 +17577,7 @@
       </c>
       <c r="L8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Fail</v>
+        <v>Fail : 18/11/2025 6:11:23 pm</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -15948,10 +17601,10 @@
         <v>17</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>43</v>
+        <v>195</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>300</v>
+        <v>1432</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>19</v>
@@ -15961,7 +17614,7 @@
       </c>
       <c r="L9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Pass</v>
+        <v>Fail : 18/11/2025 6:11:34 pm</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -15985,10 +17638,10 @@
         <v>17</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>302</v>
+        <v>1433</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>19</v>
@@ -15998,7 +17651,7 @@
       </c>
       <c r="L10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Pass</v>
+        <v>Fail : 18/11/2025 6:11:44 pm</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -19743,10 +21396,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5">
       <formula1>"90004391023,85002400164"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E57" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E57">
       <formula1>"50003490170,30002698453"</formula1>
     </dataValidation>
   </dataValidations>
@@ -19755,11 +21408,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14:J24"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19767,7 +21420,7 @@
     <col min="1" max="1" customWidth="true" width="17.5703125"/>
     <col min="2" max="2" customWidth="true" width="31.7109375"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="42.140625"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="53" width="20.42578125"/>
+    <col min="4" max="4" customWidth="true" style="53" width="27.140625"/>
     <col min="5" max="5" customWidth="true" width="24.0"/>
     <col min="6" max="6" customWidth="true" style="3" width="34.85546875"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="15.140625"/>
@@ -19884,10 +21537,10 @@
         <v>17</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>694</v>
+        <v>195</v>
       </c>
       <c r="I3" s="98" t="s">
-        <v>1244</v>
+        <v>1368</v>
       </c>
       <c r="J3" s="43" t="s">
         <v>19</v>
@@ -19897,7 +21550,7 @@
       </c>
       <c r="L3" s="1" t="str">
         <f>LEFT(I3,4)</f>
-        <v>Pass : 08/10/2025 6:42:32 pm</v>
+        <v>Fail : 17/11/2025 3:53:47 pm</v>
       </c>
       <c r="M3" s="41" t="s">
         <v>120</v>
@@ -19927,7 +21580,7 @@
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="98" t="s">
-        <v>1245</v>
+        <v>1167</v>
       </c>
       <c r="J4" s="43" t="s">
         <v>19</v>
@@ -19967,7 +21620,7 @@
         <v>706</v>
       </c>
       <c r="I5" s="98" t="s">
-        <v>1246</v>
+        <v>1168</v>
       </c>
       <c r="J5" s="43" t="s">
         <v>19</v>
@@ -20009,7 +21662,7 @@
         <v>713</v>
       </c>
       <c r="I6" s="98" t="s">
-        <v>1247</v>
+        <v>1169</v>
       </c>
       <c r="J6" s="43" t="s">
         <v>19</v>
@@ -20049,7 +21702,7 @@
         <v>717</v>
       </c>
       <c r="I7" s="98" t="s">
-        <v>1247</v>
+        <v>1169</v>
       </c>
       <c r="J7" s="43" t="s">
         <v>19</v>
@@ -20315,7 +21968,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="52" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="52" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="49" t="s">
         <v>690</v>
       </c>
@@ -20357,7 +22010,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="39" t="s">
         <v>695</v>
       </c>
@@ -20481,7 +22134,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="39" t="s">
         <v>714</v>
       </c>
@@ -20561,7 +22214,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="39" t="s">
         <v>724</v>
       </c>
@@ -20603,7 +22256,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="39" t="s">
         <v>727</v>
       </c>
@@ -20645,7 +22298,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="39" t="s">
         <v>730</v>
       </c>
@@ -20777,11 +22430,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20878,16 +22531,16 @@
     </row>
     <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="42" t="s">
@@ -20897,76 +22550,76 @@
         <v>17</v>
       </c>
       <c r="H3" s="54" t="s">
-        <v>846</v>
+        <v>195</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>847</v>
+        <v>1384</v>
       </c>
       <c r="J3" s="41" t="s">
-        <v>288</v>
+        <v>19</v>
       </c>
       <c r="K3" s="25" t="s">
         <v>20</v>
       </c>
       <c r="L3" s="58" t="str">
         <f t="shared" ref="L3:L28" si="0">LEFT(I3,4)</f>
-        <v>Pass</v>
+        <v>Fail : 18/11/2025 4:31:05 pm</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>120</v>
       </c>
       <c r="F4" s="43" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="G4" s="43" t="s">
         <v>17</v>
       </c>
       <c r="H4" s="54" t="s">
-        <v>846</v>
+        <v>195</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>847</v>
+        <v>1385</v>
       </c>
       <c r="J4" s="41" t="s">
-        <v>288</v>
+        <v>19</v>
       </c>
       <c r="K4" s="58" t="s">
         <v>20</v>
       </c>
       <c r="L4" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>Pass</v>
+        <v>Fail : 18/11/2025 4:31:15 pm</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="F5" s="43" t="s">
         <v>642</v>
@@ -20975,28 +22628,28 @@
         <v>17</v>
       </c>
       <c r="H5" s="54" t="s">
-        <v>846</v>
+        <v>1377</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>847</v>
+        <v>1386</v>
       </c>
       <c r="J5" s="41" t="s">
-        <v>288</v>
+        <v>19</v>
       </c>
       <c r="K5" s="58" t="s">
         <v>20</v>
       </c>
       <c r="L5" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>Pass</v>
+        <v>Pass : 18/11/2025 4:31:16 pm</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="C6" s="44" t="s">
         <v>569</v>
@@ -21008,19 +22661,19 @@
         <v>120</v>
       </c>
       <c r="F6" s="43" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="G6" s="43" t="s">
         <v>17</v>
       </c>
       <c r="H6" s="54" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="J6" s="41" t="s">
-        <v>288</v>
+        <v>19</v>
       </c>
       <c r="K6" s="58" t="s">
         <v>20</v>
@@ -21032,32 +22685,32 @@
     </row>
     <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="C7" s="72" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="E7" s="73"/>
       <c r="F7" s="43" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="G7" s="43" t="s">
         <v>17</v>
       </c>
       <c r="H7" s="54" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="J7" s="41" t="s">
-        <v>288</v>
+        <v>19</v>
       </c>
       <c r="K7" s="58" t="s">
         <v>20</v>
@@ -21069,32 +22722,32 @@
     </row>
     <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="C8" s="72" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="D8" s="74" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="E8" s="73"/>
       <c r="F8" s="43" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="G8" s="43" t="s">
         <v>17</v>
       </c>
       <c r="H8" s="54" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="J8" s="41" t="s">
-        <v>288</v>
+        <v>19</v>
       </c>
       <c r="K8" s="58" t="s">
         <v>20</v>
@@ -21106,34 +22759,34 @@
     </row>
     <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="C9" s="72" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="D9" s="75" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="E9" s="22" t="s">
         <v>675</v>
       </c>
       <c r="F9" s="43" t="s">
+        <v>834</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="54" t="s">
         <v>840</v>
       </c>
-      <c r="G9" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="54" t="s">
-        <v>846</v>
-      </c>
       <c r="I9" s="18" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="J9" s="41" t="s">
-        <v>288</v>
+        <v>19</v>
       </c>
       <c r="K9" s="58" t="s">
         <v>20</v>
@@ -21145,34 +22798,34 @@
     </row>
     <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
+        <v>835</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>810</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>836</v>
+      </c>
+      <c r="D10" s="75" t="s">
+        <v>837</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>838</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>839</v>
+      </c>
+      <c r="G10" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="54" t="s">
+        <v>840</v>
+      </c>
+      <c r="I10" s="18" t="s">
         <v>841</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>816</v>
-      </c>
-      <c r="C10" s="55" t="s">
-        <v>842</v>
-      </c>
-      <c r="D10" s="75" t="s">
-        <v>843</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>844</v>
-      </c>
-      <c r="F10" s="43" t="s">
-        <v>845</v>
-      </c>
-      <c r="G10" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="54" t="s">
-        <v>846</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>847</v>
-      </c>
       <c r="J10" s="41" t="s">
-        <v>288</v>
+        <v>19</v>
       </c>
       <c r="K10" s="58" t="s">
         <v>20</v>
@@ -21184,32 +22837,32 @@
     </row>
     <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="D11" s="75" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="E11" s="73"/>
       <c r="F11" s="43" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="G11" s="43" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="54" t="s">
+        <v>840</v>
+      </c>
+      <c r="I11" s="18" t="s">
         <v>846</v>
       </c>
-      <c r="I11" s="18" t="s">
-        <v>852</v>
-      </c>
       <c r="J11" s="41" t="s">
-        <v>288</v>
+        <v>19</v>
       </c>
       <c r="K11" s="58" t="s">
         <v>20</v>
@@ -21221,34 +22874,34 @@
     </row>
     <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="D12" s="75" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="F12" s="43" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="G12" s="43" t="s">
         <v>17</v>
       </c>
       <c r="H12" s="54" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="J12" s="41" t="s">
-        <v>288</v>
+        <v>19</v>
       </c>
       <c r="K12" s="58" t="s">
         <v>20</v>
@@ -21260,32 +22913,32 @@
     </row>
     <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="C13" s="72" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="E13" s="73"/>
       <c r="F13" s="43" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="G13" s="43" t="s">
         <v>17</v>
       </c>
       <c r="H13" s="54" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="J13" s="41" t="s">
-        <v>288</v>
+        <v>19</v>
       </c>
       <c r="K13" s="58" t="s">
         <v>20</v>
@@ -21297,32 +22950,32 @@
     </row>
     <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="C14" s="72" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="D14" s="41" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="E14" s="73"/>
       <c r="F14" s="43" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="G14" s="43" t="s">
         <v>17</v>
       </c>
       <c r="H14" s="54" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="J14" s="41" t="s">
-        <v>288</v>
+        <v>19</v>
       </c>
       <c r="K14" s="58" t="s">
         <v>20</v>
@@ -21334,32 +22987,32 @@
     </row>
     <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="C15" s="72" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="D15" s="41" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="E15" s="73"/>
       <c r="F15" s="43" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="G15" s="43" t="s">
         <v>17</v>
       </c>
       <c r="H15" s="54" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="J15" s="41" t="s">
-        <v>288</v>
+        <v>19</v>
       </c>
       <c r="K15" s="58" t="s">
         <v>20</v>
@@ -21371,32 +23024,32 @@
     </row>
     <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="C16" s="72" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="E16" s="73"/>
       <c r="F16" s="43" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="G16" s="43" t="s">
         <v>17</v>
       </c>
       <c r="H16" s="54" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="J16" s="41" t="s">
-        <v>288</v>
+        <v>19</v>
       </c>
       <c r="K16" s="58" t="s">
         <v>20</v>
@@ -21408,32 +23061,32 @@
     </row>
     <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="C17" s="72" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="E17" s="73"/>
       <c r="F17" s="43" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="G17" s="43" t="s">
         <v>17</v>
       </c>
       <c r="H17" s="54" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="J17" s="41" t="s">
-        <v>288</v>
+        <v>19</v>
       </c>
       <c r="K17" s="58" t="s">
         <v>20</v>
@@ -21445,34 +23098,34 @@
     </row>
     <row r="18" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="D18" s="75" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="F18" s="43" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="G18" s="43" t="s">
         <v>17</v>
       </c>
       <c r="H18" s="54" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="J18" s="41" t="s">
-        <v>288</v>
+        <v>19</v>
       </c>
       <c r="K18" s="58" t="s">
         <v>20</v>
@@ -21484,32 +23137,32 @@
     </row>
     <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="C19" s="72" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="D19" s="74" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="E19" s="73"/>
       <c r="F19" s="43" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="G19" s="43" t="s">
         <v>17</v>
       </c>
       <c r="H19" s="54" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="J19" s="41" t="s">
-        <v>288</v>
+        <v>19</v>
       </c>
       <c r="K19" s="58" t="s">
         <v>20</v>
@@ -21521,32 +23174,32 @@
     </row>
     <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="C20" s="72" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="D20" s="74" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="E20" s="73"/>
       <c r="F20" s="43" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="G20" s="43" t="s">
         <v>17</v>
       </c>
       <c r="H20" s="54" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="J20" s="41" t="s">
-        <v>288</v>
+        <v>19</v>
       </c>
       <c r="K20" s="58" t="s">
         <v>20</v>
@@ -21558,10 +23211,10 @@
     </row>
     <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="C21" s="44" t="s">
         <v>569</v>
@@ -21573,7 +23226,7 @@
         <v>120</v>
       </c>
       <c r="F21" s="43" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="G21" s="43" t="s">
         <v>17</v>
@@ -21582,10 +23235,10 @@
         <v>572</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="J21" s="41" t="s">
-        <v>288</v>
+        <v>19</v>
       </c>
       <c r="K21" s="58" t="s">
         <v>20</v>
@@ -21597,10 +23250,10 @@
     </row>
     <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="C22" s="44" t="s">
         <v>569</v>
@@ -21618,13 +23271,13 @@
         <v>17</v>
       </c>
       <c r="H22" s="54" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="J22" s="41" t="s">
-        <v>288</v>
+        <v>19</v>
       </c>
       <c r="K22" s="58" t="s">
         <v>20</v>
@@ -21636,10 +23289,10 @@
     </row>
     <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="76" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="B23" s="76" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="C23" s="77" t="s">
         <v>621</v>
@@ -21648,7 +23301,7 @@
         <v>622</v>
       </c>
       <c r="E23" s="79" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="F23" s="80" t="s">
         <v>623</v>
@@ -21660,10 +23313,10 @@
         <v>572</v>
       </c>
       <c r="I23" s="76" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="J23" s="41" t="s">
-        <v>288</v>
+        <v>19</v>
       </c>
       <c r="K23" s="82" t="s">
         <v>20</v>
@@ -21675,10 +23328,10 @@
     </row>
     <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="76" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="B24" s="76" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="C24" s="44" t="s">
         <v>569</v>
@@ -21688,7 +23341,7 @@
       </c>
       <c r="E24" s="73"/>
       <c r="F24" s="80" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="G24" s="80" t="s">
         <v>17</v>
@@ -21697,10 +23350,10 @@
         <v>572</v>
       </c>
       <c r="I24" s="76" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="J24" s="41" t="s">
-        <v>288</v>
+        <v>19</v>
       </c>
       <c r="K24" s="82" t="s">
         <v>20</v>
@@ -21712,32 +23365,32 @@
     </row>
     <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="76" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="B25" s="76" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="C25" s="44" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="D25" s="45" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="E25" s="73"/>
       <c r="F25" s="80" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="G25" s="80" t="s">
         <v>17</v>
       </c>
       <c r="H25" s="54" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="I25" s="76" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="J25" s="41" t="s">
-        <v>288</v>
+        <v>19</v>
       </c>
       <c r="K25" s="82" t="s">
         <v>20</v>
@@ -21749,32 +23402,32 @@
     </row>
     <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="76" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="B26" s="76" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="C26" s="44" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="D26" s="45" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="E26" s="73"/>
       <c r="F26" s="80" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="G26" s="80" t="s">
         <v>17</v>
       </c>
       <c r="H26" s="54" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="I26" s="76" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="J26" s="41" t="s">
-        <v>288</v>
+        <v>19</v>
       </c>
       <c r="K26" s="82" t="s">
         <v>20</v>
@@ -21786,10 +23439,10 @@
     </row>
     <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="76" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="B27" s="76" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="C27" s="44" t="s">
         <v>569</v>
@@ -21799,7 +23452,7 @@
       </c>
       <c r="E27" s="73"/>
       <c r="F27" s="80" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="G27" s="80" t="s">
         <v>17</v>
@@ -21808,10 +23461,10 @@
         <v>572</v>
       </c>
       <c r="I27" s="76" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="J27" s="41" t="s">
-        <v>288</v>
+        <v>19</v>
       </c>
       <c r="K27" s="82" t="s">
         <v>20</v>
@@ -21823,10 +23476,10 @@
     </row>
     <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="C28" s="44" t="s">
         <v>625</v>
@@ -21845,10 +23498,10 @@
         <v>572</v>
       </c>
       <c r="I28" s="18" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="J28" s="41" t="s">
-        <v>288</v>
+        <v>19</v>
       </c>
       <c r="K28" s="58" t="s">
         <v>20</v>
@@ -21864,11 +23517,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView topLeftCell="C12" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5:J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21965,16 +23618,16 @@
     </row>
     <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="111" t="s">
@@ -21984,10 +23637,10 @@
         <v>17</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>694</v>
+        <v>195</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>1243</v>
+        <v>1382</v>
       </c>
       <c r="J3" s="41" t="s">
         <v>19</v>
@@ -21997,36 +23650,36 @@
       </c>
       <c r="L3" s="25" t="str">
         <f>LEFT(I3,4)</f>
-        <v>Pass : 08/10/2025 6:40:45 pm</v>
+        <v>Fail : 18/11/2025 2:51:35 pm</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>120</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="G4" s="43" t="s">
         <v>17</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>1139</v>
+        <v>195</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>1243</v>
+        <v>1383</v>
       </c>
       <c r="J4" s="41" t="s">
         <v>19</v>
@@ -22036,33 +23689,33 @@
       </c>
       <c r="L4" s="58" t="str">
         <f t="shared" ref="L4:L26" si="0">LEFT(I4,4)</f>
-        <v>Pass : 08/10/2025 6:40:45 pm</v>
+        <v>Fail : 18/11/2025 2:51:45 pm</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="E5" s="21" t="s">
         <v>188</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="G5" s="43" t="s">
         <v>17</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>1140</v>
+        <v>1133</v>
       </c>
       <c r="J5" s="41" t="s">
         <v>19</v>
@@ -22077,10 +23730,10 @@
     </row>
     <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="C6" s="44" t="s">
         <v>569</v>
@@ -22092,7 +23745,7 @@
         <v>120</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="G6" s="43" t="s">
         <v>17</v>
@@ -22101,10 +23754,10 @@
         <v>572</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="J6" s="41" t="s">
-        <v>288</v>
+        <v>19</v>
       </c>
       <c r="K6" s="58" t="s">
         <v>20</v>
@@ -22116,20 +23769,20 @@
     </row>
     <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="C7" s="83" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="D7" s="81" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="E7" s="84"/>
       <c r="F7" s="76" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="G7" s="80" t="s">
         <v>17</v>
@@ -22138,10 +23791,10 @@
         <v>195</v>
       </c>
       <c r="I7" s="76" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="J7" s="41" t="s">
-        <v>288</v>
+        <v>19</v>
       </c>
       <c r="K7" s="82" t="s">
         <v>20</v>
@@ -22153,20 +23806,20 @@
     </row>
     <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="76" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="B8" s="76" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="C8" s="83" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="D8" s="85" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="E8" s="84"/>
       <c r="F8" s="76" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="G8" s="80" t="s">
         <v>17</v>
@@ -22175,10 +23828,10 @@
         <v>195</v>
       </c>
       <c r="I8" s="76" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="J8" s="41" t="s">
-        <v>288</v>
+        <v>19</v>
       </c>
       <c r="K8" s="82" t="s">
         <v>20</v>
@@ -22190,20 +23843,20 @@
     </row>
     <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="76" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="B9" s="76" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="C9" s="72" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="D9" s="74" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="E9" s="73"/>
       <c r="F9" s="18" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="G9" s="80" t="s">
         <v>17</v>
@@ -22212,10 +23865,10 @@
         <v>195</v>
       </c>
       <c r="I9" s="76" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="J9" s="41" t="s">
-        <v>288</v>
+        <v>19</v>
       </c>
       <c r="K9" s="82" t="s">
         <v>20</v>
@@ -22227,20 +23880,20 @@
     </row>
     <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="76" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="B10" s="76" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="C10" s="72" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="E10" s="73"/>
       <c r="F10" s="18" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="G10" s="80" t="s">
         <v>17</v>
@@ -22249,10 +23902,10 @@
         <v>195</v>
       </c>
       <c r="I10" s="76" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="J10" s="41" t="s">
-        <v>288</v>
+        <v>19</v>
       </c>
       <c r="K10" s="82" t="s">
         <v>20</v>
@@ -22264,20 +23917,20 @@
     </row>
     <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="76" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="B11" s="76" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="C11" s="72" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="D11" s="74" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="E11" s="73"/>
       <c r="F11" s="18" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="G11" s="80" t="s">
         <v>17</v>
@@ -22286,10 +23939,10 @@
         <v>195</v>
       </c>
       <c r="I11" s="76" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="J11" s="41" t="s">
-        <v>288</v>
+        <v>19</v>
       </c>
       <c r="K11" s="82" t="s">
         <v>20</v>
@@ -22301,22 +23954,22 @@
     </row>
     <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="76" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="B12" s="76" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>680</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="G12" s="80" t="s">
         <v>17</v>
@@ -22325,10 +23978,10 @@
         <v>195</v>
       </c>
       <c r="I12" s="76" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="J12" s="41" t="s">
-        <v>288</v>
+        <v>19</v>
       </c>
       <c r="K12" s="82" t="s">
         <v>20</v>
@@ -22340,22 +23993,22 @@
     </row>
     <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="76" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="B13" s="76" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="D13" s="45" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="G13" s="80" t="s">
         <v>17</v>
@@ -22364,10 +24017,10 @@
         <v>195</v>
       </c>
       <c r="I13" s="76" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="J13" s="41" t="s">
-        <v>288</v>
+        <v>19</v>
       </c>
       <c r="K13" s="82" t="s">
         <v>20</v>
@@ -22379,10 +24032,10 @@
     </row>
     <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="76" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="B14" s="76" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="C14" s="44" t="s">
         <v>583</v>
@@ -22391,7 +24044,7 @@
         <v>584</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="F14" s="18" t="s">
         <v>586</v>
@@ -22403,10 +24056,10 @@
         <v>195</v>
       </c>
       <c r="I14" s="76" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="J14" s="41" t="s">
-        <v>288</v>
+        <v>19</v>
       </c>
       <c r="K14" s="82" t="s">
         <v>20</v>
@@ -22418,22 +24071,22 @@
     </row>
     <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="76" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="B15" s="76" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="C15" s="44" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="D15" s="45" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="E15" s="65" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="F15" s="65" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="G15" s="80" t="s">
         <v>17</v>
@@ -22442,10 +24095,10 @@
         <v>195</v>
       </c>
       <c r="I15" s="76" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="J15" s="41" t="s">
-        <v>288</v>
+        <v>19</v>
       </c>
       <c r="K15" s="82" t="s">
         <v>20</v>
@@ -22457,22 +24110,22 @@
     </row>
     <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="76" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="B16" s="76" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="C16" s="86" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="D16" s="87" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="E16" s="88" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="F16" s="76" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="G16" s="80" t="s">
         <v>17</v>
@@ -22481,10 +24134,10 @@
         <v>195</v>
       </c>
       <c r="I16" s="76" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="J16" s="41" t="s">
-        <v>288</v>
+        <v>19</v>
       </c>
       <c r="K16" s="82" t="s">
         <v>20</v>
@@ -22496,22 +24149,22 @@
     </row>
     <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="76" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="B17" s="76" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="C17" s="86" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="D17" s="87" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="E17" s="89" t="s">
         <v>120</v>
       </c>
       <c r="F17" s="88" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="G17" s="80" t="s">
         <v>17</v>
@@ -22520,10 +24173,10 @@
         <v>195</v>
       </c>
       <c r="I17" s="76" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="J17" s="41" t="s">
-        <v>288</v>
+        <v>19</v>
       </c>
       <c r="K17" s="82" t="s">
         <v>20</v>
@@ -22535,22 +24188,22 @@
     </row>
     <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="76" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="B18" s="76" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="D18" s="87" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="F18" s="76" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="G18" s="80" t="s">
         <v>17</v>
@@ -22559,10 +24212,10 @@
         <v>195</v>
       </c>
       <c r="I18" s="76" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="J18" s="41" t="s">
-        <v>288</v>
+        <v>19</v>
       </c>
       <c r="K18" s="82" t="s">
         <v>20</v>
@@ -22574,10 +24227,10 @@
     </row>
     <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="76" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="B19" s="76" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="C19" s="44" t="s">
         <v>569</v>
@@ -22589,7 +24242,7 @@
         <v>120</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="G19" s="80" t="s">
         <v>17</v>
@@ -22598,10 +24251,10 @@
         <v>572</v>
       </c>
       <c r="I19" s="76" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="J19" s="41" t="s">
-        <v>288</v>
+        <v>19</v>
       </c>
       <c r="K19" s="82" t="s">
         <v>20</v>
@@ -22613,10 +24266,10 @@
     </row>
     <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="76" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="B20" s="76" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="C20" s="44" t="s">
         <v>569</v>
@@ -22635,10 +24288,10 @@
         <v>195</v>
       </c>
       <c r="I20" s="76" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="J20" s="41" t="s">
-        <v>288</v>
+        <v>19</v>
       </c>
       <c r="K20" s="82" t="s">
         <v>20</v>
@@ -22650,10 +24303,10 @@
     </row>
     <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="76" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="B21" s="76" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="C21" s="77" t="s">
         <v>621</v>
@@ -22662,7 +24315,7 @@
         <v>622</v>
       </c>
       <c r="E21" s="79" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="F21" s="76" t="s">
         <v>623</v>
@@ -22674,10 +24327,10 @@
         <v>572</v>
       </c>
       <c r="I21" s="76" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="J21" s="41" t="s">
-        <v>288</v>
+        <v>19</v>
       </c>
       <c r="K21" s="82" t="s">
         <v>20</v>
@@ -22689,10 +24342,10 @@
     </row>
     <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="76" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="B22" s="76" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="C22" s="44" t="s">
         <v>569</v>
@@ -22702,7 +24355,7 @@
       </c>
       <c r="E22" s="73"/>
       <c r="F22" s="76" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="G22" s="80" t="s">
         <v>17</v>
@@ -22711,10 +24364,10 @@
         <v>195</v>
       </c>
       <c r="I22" s="76" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="J22" s="41" t="s">
-        <v>288</v>
+        <v>19</v>
       </c>
       <c r="K22" s="82" t="s">
         <v>20</v>
@@ -22726,20 +24379,20 @@
     </row>
     <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="76" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="B23" s="76" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="C23" s="44" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="D23" s="45" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="E23" s="73"/>
       <c r="F23" s="76" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="G23" s="80" t="s">
         <v>17</v>
@@ -22748,10 +24401,10 @@
         <v>195</v>
       </c>
       <c r="I23" s="76" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="J23" s="41" t="s">
-        <v>288</v>
+        <v>19</v>
       </c>
       <c r="K23" s="82" t="s">
         <v>20</v>
@@ -22763,20 +24416,20 @@
     </row>
     <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="76" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="B24" s="76" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="C24" s="44" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="D24" s="45" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="E24" s="73"/>
       <c r="F24" s="76" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="G24" s="80" t="s">
         <v>17</v>
@@ -22785,10 +24438,10 @@
         <v>195</v>
       </c>
       <c r="I24" s="76" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="J24" s="41" t="s">
-        <v>288</v>
+        <v>19</v>
       </c>
       <c r="K24" s="82" t="s">
         <v>20</v>
@@ -22800,10 +24453,10 @@
     </row>
     <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="76" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="B25" s="76" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="C25" s="77" t="s">
         <v>569</v>
@@ -22813,7 +24466,7 @@
       </c>
       <c r="E25" s="84"/>
       <c r="F25" s="76" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="G25" s="80" t="s">
         <v>17</v>
@@ -22822,10 +24475,10 @@
         <v>195</v>
       </c>
       <c r="I25" s="76" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="J25" s="41" t="s">
-        <v>288</v>
+        <v>19</v>
       </c>
       <c r="K25" s="82" t="s">
         <v>20</v>
@@ -22837,10 +24490,10 @@
     </row>
     <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="C26" s="44" t="s">
         <v>625</v>
@@ -22859,10 +24512,10 @@
         <v>195</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="J26" s="41" t="s">
-        <v>288</v>
+        <v>19</v>
       </c>
       <c r="K26" s="58" t="s">
         <v>20</v>
@@ -22878,10 +24531,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView topLeftCell="D19" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="J22" sqref="J22:J37"/>
     </sheetView>
   </sheetViews>
@@ -23011,7 +24664,7 @@
         <v>545</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>1264</v>
+        <v>1176</v>
       </c>
       <c r="J3" s="23" t="s">
         <v>19</v>
@@ -23051,7 +24704,7 @@
         <v>550</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>1265</v>
+        <v>1177</v>
       </c>
       <c r="J4" s="23" t="s">
         <v>19</v>
@@ -23093,7 +24746,7 @@
         <v>555</v>
       </c>
       <c r="I5" s="32" t="s">
-        <v>1266</v>
+        <v>1178</v>
       </c>
       <c r="J5" s="23" t="s">
         <v>19</v>
@@ -23133,7 +24786,7 @@
         <v>561</v>
       </c>
       <c r="I6" s="32" t="s">
-        <v>1266</v>
+        <v>1178</v>
       </c>
       <c r="J6" s="23" t="s">
         <v>19</v>
@@ -23173,7 +24826,7 @@
         <v>550</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>1266</v>
+        <v>1178</v>
       </c>
       <c r="J7" s="23" t="s">
         <v>19</v>
@@ -23213,7 +24866,7 @@
         <v>567</v>
       </c>
       <c r="I8" s="32" t="s">
-        <v>1266</v>
+        <v>1178</v>
       </c>
       <c r="J8" s="23" t="s">
         <v>19</v>
@@ -23253,7 +24906,7 @@
         <v>572</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>1267</v>
+        <v>1179</v>
       </c>
       <c r="J9" s="23" t="s">
         <v>19</v>
@@ -23293,7 +24946,7 @@
         <v>577</v>
       </c>
       <c r="I10" s="32" t="s">
-        <v>1268</v>
+        <v>1180</v>
       </c>
       <c r="J10" s="23" t="s">
         <v>19</v>
@@ -23333,7 +24986,7 @@
         <v>581</v>
       </c>
       <c r="I11" s="32" t="s">
-        <v>1269</v>
+        <v>1181</v>
       </c>
       <c r="J11" s="23" t="s">
         <v>19</v>
@@ -23373,7 +25026,7 @@
         <v>587</v>
       </c>
       <c r="I12" s="32" t="s">
-        <v>1269</v>
+        <v>1181</v>
       </c>
       <c r="J12" s="23" t="s">
         <v>19</v>
@@ -23413,7 +25066,7 @@
         <v>593</v>
       </c>
       <c r="I13" s="32" t="s">
-        <v>1269</v>
+        <v>1181</v>
       </c>
       <c r="J13" s="23" t="s">
         <v>19</v>
@@ -23453,7 +25106,7 @@
         <v>599</v>
       </c>
       <c r="I14" s="32" t="s">
-        <v>1270</v>
+        <v>1182</v>
       </c>
       <c r="J14" s="23" t="s">
         <v>19</v>
@@ -23493,7 +25146,7 @@
         <v>605</v>
       </c>
       <c r="I15" s="32" t="s">
-        <v>1270</v>
+        <v>1182</v>
       </c>
       <c r="J15" s="23" t="s">
         <v>19</v>
@@ -23533,7 +25186,7 @@
         <v>801</v>
       </c>
       <c r="I16" s="32" t="s">
-        <v>1143</v>
+        <v>1135</v>
       </c>
       <c r="J16" s="23" t="s">
         <v>19</v>
@@ -23573,7 +25226,7 @@
         <v>613</v>
       </c>
       <c r="I17" s="32" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
       <c r="J17" s="23" t="s">
         <v>19</v>
@@ -23613,7 +25266,7 @@
         <v>195</v>
       </c>
       <c r="I18" s="32" t="s">
-        <v>1145</v>
+        <v>1137</v>
       </c>
       <c r="J18" s="23" t="s">
         <v>19</v>
@@ -23653,7 +25306,7 @@
         <v>619</v>
       </c>
       <c r="I19" s="32" t="s">
-        <v>1146</v>
+        <v>1138</v>
       </c>
       <c r="J19" s="23" t="s">
         <v>19</v>
@@ -23690,10 +25343,10 @@
         <v>17</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>1141</v>
+        <v>1134</v>
       </c>
       <c r="I20" s="32" t="s">
-        <v>1147</v>
+        <v>1139</v>
       </c>
       <c r="J20" s="23" t="s">
         <v>19</v>
@@ -23733,7 +25386,7 @@
         <v>628</v>
       </c>
       <c r="I21" s="32" t="s">
-        <v>1148</v>
+        <v>1140</v>
       </c>
       <c r="J21" s="23" t="s">
         <v>19</v>
@@ -24391,10 +26044,10 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -24515,7 +26168,7 @@
         <v>768</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>1271</v>
+        <v>1350</v>
       </c>
       <c r="J3" s="41" t="s">
         <v>19</v>
@@ -24525,7 +26178,7 @@
       </c>
       <c r="L3" s="25" t="str">
         <f>LEFT(I3,4)</f>
-        <v>Pass : 28/10/2025 5:34:07 pm</v>
+        <v>Pass : 17/11/2025 11:46:13 am</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -24554,7 +26207,7 @@
         <v>550</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>1272</v>
+        <v>1350</v>
       </c>
       <c r="J4" s="41" t="s">
         <v>19</v>
@@ -24564,7 +26217,7 @@
       </c>
       <c r="L4" s="58" t="str">
         <f t="shared" ref="L4:L21" si="0">LEFT(I4,4)</f>
-        <v>Pass : 28/10/2025 5:34:09 pm</v>
+        <v>Pass : 17/11/2025 11:46:13 am</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -24593,7 +26246,7 @@
         <v>555</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>1272</v>
+        <v>1351</v>
       </c>
       <c r="J5" s="41" t="s">
         <v>19</v>
@@ -24603,7 +26256,7 @@
       </c>
       <c r="L5" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 28/10/2025 5:34:09 pm</v>
+        <v>Pass : 17/11/2025 11:46:14 am</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -24632,7 +26285,7 @@
         <v>561</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>1273</v>
+        <v>1351</v>
       </c>
       <c r="J6" s="41" t="s">
         <v>19</v>
@@ -24642,7 +26295,7 @@
       </c>
       <c r="L6" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 28/10/2025 5:34:10 pm</v>
+        <v>Pass : 17/11/2025 11:46:14 am</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -24671,7 +26324,7 @@
         <v>550</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>1273</v>
+        <v>1352</v>
       </c>
       <c r="J7" s="41" t="s">
         <v>19</v>
@@ -24681,7 +26334,7 @@
       </c>
       <c r="L7" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 28/10/2025 5:34:10 pm</v>
+        <v>Pass : 17/11/2025 11:46:15 am</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -24710,7 +26363,7 @@
         <v>567</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>1274</v>
+        <v>1352</v>
       </c>
       <c r="J8" s="41" t="s">
         <v>19</v>
@@ -24720,7 +26373,7 @@
       </c>
       <c r="L8" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 28/10/2025 5:34:11 pm</v>
+        <v>Pass : 17/11/2025 11:46:15 am</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -24749,7 +26402,7 @@
         <v>572</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>1274</v>
+        <v>1352</v>
       </c>
       <c r="J9" s="41" t="s">
         <v>19</v>
@@ -24759,7 +26412,7 @@
       </c>
       <c r="L9" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 28/10/2025 5:34:11 pm</v>
+        <v>Pass : 17/11/2025 11:46:15 am</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -24785,10 +26438,10 @@
         <v>17</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>1190</v>
+        <v>1160</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>1275</v>
+        <v>1353</v>
       </c>
       <c r="J10" s="41" t="s">
         <v>19</v>
@@ -24798,7 +26451,7 @@
       </c>
       <c r="L10" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 28/10/2025 5:34:13 pm</v>
+        <v>Pass : 17/11/2025 11:46:17 am</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -24827,7 +26480,7 @@
         <v>587</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>1275</v>
+        <v>1353</v>
       </c>
       <c r="J11" s="41" t="s">
         <v>19</v>
@@ -24837,7 +26490,7 @@
       </c>
       <c r="L11" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 28/10/2025 5:34:13 pm</v>
+        <v>Pass : 17/11/2025 11:46:17 am</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -24863,10 +26516,10 @@
         <v>17</v>
       </c>
       <c r="H12" t="s" s="0">
-        <v>1193</v>
+        <v>1161</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>1276</v>
+        <v>1354</v>
       </c>
       <c r="J12" s="41" t="s">
         <v>19</v>
@@ -24876,7 +26529,7 @@
       </c>
       <c r="L12" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 28/10/2025 5:34:14 pm</v>
+        <v>Pass : 17/11/2025 11:46:18 am</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -24902,10 +26555,10 @@
         <v>17</v>
       </c>
       <c r="H13" t="s" s="0">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>1276</v>
+        <v>1354</v>
       </c>
       <c r="J13" s="41" t="s">
         <v>19</v>
@@ -24915,7 +26568,7 @@
       </c>
       <c r="L13" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 28/10/2025 5:34:14 pm</v>
+        <v>Pass : 17/11/2025 11:46:18 am</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -24932,7 +26585,7 @@
         <v>602</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>1160</v>
+        <v>1152</v>
       </c>
       <c r="F14" s="41" t="s">
         <v>604</v>
@@ -24941,10 +26594,10 @@
         <v>17</v>
       </c>
       <c r="H14" t="s" s="0">
-        <v>1194</v>
+        <v>1162</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>1276</v>
+        <v>1355</v>
       </c>
       <c r="J14" s="41" t="s">
         <v>19</v>
@@ -24954,7 +26607,7 @@
       </c>
       <c r="L14" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 28/10/2025 5:34:14 pm</v>
+        <v>Pass : 17/11/2025 11:46:19 am</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -24980,10 +26633,10 @@
         <v>17</v>
       </c>
       <c r="H15" t="s" s="0">
-        <v>1141</v>
+        <v>1134</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>1277</v>
+        <v>1183</v>
       </c>
       <c r="J15" s="41" t="s">
         <v>19</v>
@@ -24993,7 +26646,7 @@
       </c>
       <c r="L15" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>Fail : 28/10/2025 5:34:59 pm</v>
+        <v>Fail : 12/11/2025 11:40:23 am</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -25022,7 +26675,7 @@
         <v>195</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>1278</v>
+        <v>1184</v>
       </c>
       <c r="J16" s="41" t="s">
         <v>19</v>
@@ -25032,7 +26685,7 @@
       </c>
       <c r="L16" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>Fail : 28/10/2025 5:35:20 pm</v>
+        <v>Fail : 12/11/2025 11:40:34 am</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="64" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -25058,10 +26711,10 @@
         <v>17</v>
       </c>
       <c r="H17" t="s" s="0">
-        <v>572</v>
+        <v>195</v>
       </c>
       <c r="I17" s="22" t="s">
-        <v>1279</v>
+        <v>1185</v>
       </c>
       <c r="J17" s="41" t="s">
         <v>19</v>
@@ -25071,7 +26724,7 @@
       </c>
       <c r="L17" s="63" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 28/10/2025 5:35:20 pm</v>
+        <v>Fail : 12/11/2025 11:40:54 am</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -25097,10 +26750,10 @@
         <v>17</v>
       </c>
       <c r="H18" t="s" s="0">
-        <v>1141</v>
+        <v>1134</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>1280</v>
+        <v>1186</v>
       </c>
       <c r="J18" s="41" t="s">
         <v>19</v>
@@ -25110,7 +26763,7 @@
       </c>
       <c r="L18" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>Fail : 28/10/2025 5:35:31 pm</v>
+        <v>Fail : 12/11/2025 11:41:14 am</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -25136,10 +26789,10 @@
         <v>17</v>
       </c>
       <c r="H19" t="s" s="0">
-        <v>1141</v>
+        <v>1134</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>1281</v>
+        <v>1187</v>
       </c>
       <c r="J19" s="41" t="s">
         <v>19</v>
@@ -25149,7 +26802,7 @@
       </c>
       <c r="L19" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>Fail : 28/10/2025 5:35:51 pm</v>
+        <v>Fail : 12/11/2025 11:41:34 am</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -25175,10 +26828,10 @@
         <v>17</v>
       </c>
       <c r="H20" t="s" s="0">
-        <v>1141</v>
+        <v>1134</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>1282</v>
+        <v>1188</v>
       </c>
       <c r="J20" s="41" t="s">
         <v>19</v>
@@ -25188,7 +26841,7 @@
       </c>
       <c r="L20" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>Fail : 28/10/2025 5:36:12 pm</v>
+        <v>Fail : 12/11/2025 11:41:55 am</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="69" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -25217,7 +26870,7 @@
         <v>768</v>
       </c>
       <c r="I21" s="65" t="s">
-        <v>1283</v>
+        <v>1189</v>
       </c>
       <c r="J21" s="41" t="s">
         <v>19</v>
@@ -25227,7 +26880,7 @@
       </c>
       <c r="L21" s="68" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 28/10/2025 5:36:23 pm</v>
+        <v>Pass : 12/11/2025 11:41:56 am</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -25256,7 +26909,7 @@
         <v>639</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>1284</v>
+        <v>1190</v>
       </c>
       <c r="J22" s="41" t="s">
         <v>19</v>
@@ -25265,7 +26918,7 @@
         <v>20</v>
       </c>
       <c r="L22" s="43" t="s">
-        <v>1284</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -25294,7 +26947,7 @@
         <v>195</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>1285</v>
+        <v>1191</v>
       </c>
       <c r="J23" s="41" t="s">
         <v>19</v>
@@ -25303,7 +26956,7 @@
         <v>20</v>
       </c>
       <c r="L23" s="43" t="s">
-        <v>1285</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -25332,7 +26985,7 @@
         <v>572</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>1286</v>
+        <v>1192</v>
       </c>
       <c r="J24" s="41" t="s">
         <v>19</v>
@@ -25342,7 +26995,7 @@
       </c>
       <c r="L24" s="58" t="str">
         <f t="shared" ref="L24:L35" si="1">LEFT(I24,4)</f>
-        <v>Pass : 28/10/2025 5:36:34 pm</v>
+        <v>Pass : 12/11/2025 11:42:07 am</v>
       </c>
     </row>
     <row r="25" spans="1:12" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -25371,7 +27024,7 @@
         <v>195</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>1287</v>
+        <v>1193</v>
       </c>
       <c r="J25" s="41" t="s">
         <v>19</v>
@@ -25380,7 +27033,7 @@
         <v>20</v>
       </c>
       <c r="L25" s="43" t="s">
-        <v>1287</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -25409,7 +27062,7 @@
         <v>195</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>1288</v>
+        <v>1194</v>
       </c>
       <c r="J26" s="41" t="s">
         <v>19</v>
@@ -25419,7 +27072,7 @@
       </c>
       <c r="L26" s="58" t="str">
         <f t="shared" si="1"/>
-        <v>Fail : 28/10/2025 5:36:54 pm</v>
+        <v>Fail : 12/11/2025 11:42:27 am</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -25445,10 +27098,10 @@
         <v>17</v>
       </c>
       <c r="H27" t="s" s="0">
-        <v>1141</v>
+        <v>1134</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>1289</v>
+        <v>1195</v>
       </c>
       <c r="J27" s="41" t="s">
         <v>19</v>
@@ -25458,7 +27111,7 @@
       </c>
       <c r="L27" s="58" t="str">
         <f t="shared" si="1"/>
-        <v>Fail : 28/10/2025 5:37:14 pm</v>
+        <v>Fail : 12/11/2025 11:42:47 am</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -25487,7 +27140,7 @@
         <v>195</v>
       </c>
       <c r="I28" s="18" t="s">
-        <v>1290</v>
+        <v>1196</v>
       </c>
       <c r="J28" s="41" t="s">
         <v>19</v>
@@ -25497,7 +27150,7 @@
       </c>
       <c r="L28" s="58" t="str">
         <f t="shared" si="1"/>
-        <v>Fail : 28/10/2025 5:37:25 pm</v>
+        <v>Fail : 12/11/2025 11:42:58 am</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -25514,7 +27167,7 @@
         <v>602</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>1160</v>
+        <v>1152</v>
       </c>
       <c r="F29" s="41" t="s">
         <v>604</v>
@@ -25526,7 +27179,7 @@
         <v>195</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>1291</v>
+        <v>1197</v>
       </c>
       <c r="J29" s="41" t="s">
         <v>19</v>
@@ -25536,7 +27189,7 @@
       </c>
       <c r="L29" s="58" t="str">
         <f t="shared" si="1"/>
-        <v>Fail : 28/10/2025 5:37:35 pm</v>
+        <v>Fail : 12/11/2025 11:43:08 am</v>
       </c>
     </row>
     <row r="30" spans="1:12" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -25562,10 +27215,10 @@
         <v>17</v>
       </c>
       <c r="H30" t="s" s="0">
-        <v>1141</v>
+        <v>1134</v>
       </c>
       <c r="I30" s="18" t="s">
-        <v>1292</v>
+        <v>1198</v>
       </c>
       <c r="J30" s="41" t="s">
         <v>19</v>
@@ -25575,12 +27228,12 @@
       </c>
       <c r="L30" s="58" t="str">
         <f t="shared" si="1"/>
-        <v>Fail : 28/10/2025 5:37:55 pm</v>
+        <v>Fail : 12/11/2025 11:43:28 am</v>
       </c>
     </row>
     <row r="31" spans="1:12" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B31" s="18" t="s">
         <v>763</v>
@@ -25604,7 +27257,7 @@
         <v>195</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>1293</v>
+        <v>1199</v>
       </c>
       <c r="J31" s="41" t="s">
         <v>19</v>
@@ -25614,12 +27267,12 @@
       </c>
       <c r="L31" s="58" t="str">
         <f t="shared" si="1"/>
-        <v>Fail : 28/10/2025 5:38:16 pm</v>
+        <v>Fail : 12/11/2025 11:43:49 am</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B32" s="18" t="s">
         <v>763</v>
@@ -25643,7 +27296,7 @@
         <v>572</v>
       </c>
       <c r="I32" s="18" t="s">
-        <v>1294</v>
+        <v>1200</v>
       </c>
       <c r="J32" s="41" t="s">
         <v>19</v>
@@ -25653,12 +27306,12 @@
       </c>
       <c r="L32" s="58" t="str">
         <f t="shared" si="1"/>
-        <v>Pass : 28/10/2025 5:38:16 pm</v>
+        <v>Pass : 12/11/2025 11:43:49 am</v>
       </c>
     </row>
     <row r="33" spans="1:12" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B33" s="18" t="s">
         <v>763</v>
@@ -25679,10 +27332,10 @@
         <v>17</v>
       </c>
       <c r="H33" t="s" s="0">
-        <v>1141</v>
+        <v>1134</v>
       </c>
       <c r="I33" s="18" t="s">
-        <v>1295</v>
+        <v>1201</v>
       </c>
       <c r="J33" s="41" t="s">
         <v>19</v>
@@ -25692,12 +27345,12 @@
       </c>
       <c r="L33" s="58" t="str">
         <f t="shared" si="1"/>
-        <v>Fail : 28/10/2025 5:38:36 pm</v>
+        <v>Fail : 12/11/2025 11:44:09 am</v>
       </c>
     </row>
     <row r="34" spans="1:12" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B34" s="18" t="s">
         <v>763</v>
@@ -25718,10 +27371,10 @@
         <v>17</v>
       </c>
       <c r="H34" t="s" s="0">
-        <v>1141</v>
+        <v>1134</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>1296</v>
+        <v>1202</v>
       </c>
       <c r="J34" s="41" t="s">
         <v>19</v>
@@ -25731,12 +27384,12 @@
       </c>
       <c r="L34" s="58" t="str">
         <f t="shared" si="1"/>
-        <v>Fail : 28/10/2025 5:38:56 pm</v>
+        <v>Fail : 12/11/2025 11:44:29 am</v>
       </c>
     </row>
     <row r="35" spans="1:12" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="B35" s="18" t="s">
         <v>763</v>
@@ -25760,7 +27413,7 @@
         <v>628</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="J35" s="41" t="s">
         <v>19</v>
@@ -26003,10 +27656,10 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -26104,29 +27757,29 @@
     </row>
     <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="18" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="G3" s="18" t="s">
         <v>17</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>1179</v>
+        <v>1159</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>1254</v>
+        <v>1356</v>
       </c>
       <c r="J3" s="41" t="s">
         <v>19</v>
@@ -26136,36 +27789,36 @@
       </c>
       <c r="L3" s="25" t="str">
         <f>LEFT(I3,4)</f>
-        <v>Pass : 10/10/2025 11:53:33 am</v>
+        <v>Pass : 17/11/2025 12:23:37 pm</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>1251</v>
+        <v>1173</v>
       </c>
       <c r="F4" s="43" t="s">
-        <v>1250</v>
+        <v>1172</v>
       </c>
       <c r="G4" s="43" t="s">
         <v>17</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>1013</v>
+        <v>1134</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>1256</v>
+        <v>1358</v>
       </c>
       <c r="J4" s="41" t="s">
         <v>19</v>
@@ -26175,36 +27828,36 @@
       </c>
       <c r="L4" s="58" t="str">
         <f t="shared" ref="L4:L17" si="0">LEFT(I4,4)</f>
-        <v>Pass : 10/10/2025 11:53:44 am</v>
+        <v>Fail : 17/11/2025 12:24:34 pm</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="B5" s="18" t="s">
+        <v>994</v>
+      </c>
+      <c r="C5" s="44" t="s">
         <v>1000</v>
       </c>
-      <c r="C5" s="44" t="s">
-        <v>1006</v>
-      </c>
       <c r="D5" s="45" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>120</v>
       </c>
       <c r="F5" s="43" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="G5" s="43" t="s">
         <v>17</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>1180</v>
+        <v>1134</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>1255</v>
+        <v>1357</v>
       </c>
       <c r="J5" s="41" t="s">
         <v>19</v>
@@ -26214,34 +27867,34 @@
       </c>
       <c r="L5" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 10/10/2025 11:53:35 am</v>
+        <v>Fail : 17/11/2025 12:24:08 pm</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
+        <v>998</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>994</v>
+      </c>
+      <c r="C6" s="44" t="s">
         <v>1004</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>1010</v>
-      </c>
       <c r="D6" s="45" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="E6" s="73"/>
       <c r="F6" s="43" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="G6" s="43" t="s">
         <v>17</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="J6" s="41" t="s">
         <v>19</v>
@@ -26256,29 +27909,29 @@
     </row>
     <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="E7" s="73"/>
       <c r="F7" s="43" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="G7" s="43" t="s">
         <v>17</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>1181</v>
+        <v>1134</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>1257</v>
+        <v>1359</v>
       </c>
       <c r="J7" s="41" t="s">
         <v>19</v>
@@ -26288,36 +27941,36 @@
       </c>
       <c r="L7" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 10/10/2025 11:53:45 am</v>
+        <v>Fail : 17/11/2025 12:24:54 pm</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="F8" s="43" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="G8" s="43" t="s">
         <v>17</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>1182</v>
+        <v>1134</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>1258</v>
+        <v>1360</v>
       </c>
       <c r="J8" s="41" t="s">
         <v>19</v>
@@ -26327,27 +27980,27 @@
       </c>
       <c r="L8" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 10/10/2025 11:53:46 am</v>
+        <v>Fail : 17/11/2025 12:25:14 pm</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>1249</v>
+        <v>1171</v>
       </c>
       <c r="F9" s="43" t="s">
-        <v>1248</v>
+        <v>1170</v>
       </c>
       <c r="G9" s="43" t="s">
         <v>17</v>
@@ -26356,7 +28009,7 @@
         <v>195</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>1259</v>
+        <v>1361</v>
       </c>
       <c r="J9" s="41" t="s">
         <v>19</v>
@@ -26366,36 +28019,36 @@
       </c>
       <c r="L9" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>Fail : 10/10/2025 11:53:48 am</v>
+        <v>Fail : 17/11/2025 12:25:25 pm</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="D10" s="45" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="F10" s="43" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="G10" s="43" t="s">
         <v>17</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>1183</v>
+        <v>1134</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>1260</v>
+        <v>1362</v>
       </c>
       <c r="J10" s="41" t="s">
         <v>19</v>
@@ -26405,36 +28058,36 @@
       </c>
       <c r="L10" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 10/10/2025 11:53:48 am</v>
+        <v>Fail : 17/11/2025 12:25:45 pm</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="D11" s="45" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="F11" s="43" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="G11" s="43" t="s">
         <v>17</v>
       </c>
       <c r="H11" t="s" s="0">
-        <v>1184</v>
+        <v>1134</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>1260</v>
+        <v>1363</v>
       </c>
       <c r="J11" s="41" t="s">
         <v>19</v>
@@ -26444,36 +28097,36 @@
       </c>
       <c r="L11" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 10/10/2025 11:53:48 am</v>
+        <v>Fail : 17/11/2025 12:26:05 pm</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="F12" s="43" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="G12" s="43" t="s">
         <v>17</v>
       </c>
       <c r="H12" t="s" s="0">
-        <v>1185</v>
+        <v>1134</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>1261</v>
+        <v>1364</v>
       </c>
       <c r="J12" s="41" t="s">
         <v>19</v>
@@ -26483,36 +28136,36 @@
       </c>
       <c r="L12" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 10/10/2025 11:53:49 am</v>
+        <v>Fail : 17/11/2025 12:26:25 pm</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="D13" s="45" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="F13" s="43" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="G13" s="43" t="s">
         <v>17</v>
       </c>
       <c r="H13" t="s" s="0">
-        <v>1186</v>
+        <v>1134</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>1261</v>
+        <v>1365</v>
       </c>
       <c r="J13" s="41" t="s">
         <v>19</v>
@@ -26522,36 +28175,36 @@
       </c>
       <c r="L13" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 10/10/2025 11:53:49 am</v>
+        <v>Fail : 17/11/2025 12:26:45 pm</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="D14" s="45" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>1252</v>
+        <v>1174</v>
       </c>
       <c r="F14" s="43" t="s">
-        <v>1253</v>
+        <v>1175</v>
       </c>
       <c r="G14" s="43" t="s">
         <v>17</v>
       </c>
       <c r="H14" t="s" s="0">
-        <v>43</v>
+        <v>195</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>1262</v>
+        <v>1365</v>
       </c>
       <c r="J14" s="41" t="s">
         <v>19</v>
@@ -26561,21 +28214,21 @@
       </c>
       <c r="L14" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>Pass : 10/10/2025 11:53:53 am</v>
+        <v>Fail : 17/11/2025 12:26:45 pm</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="C15" s="44" t="s">
         <v>583</v>
       </c>
       <c r="D15" s="45" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="E15" s="22" t="s">
         <v>585</v>
@@ -26590,7 +28243,7 @@
         <v>195</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>1263</v>
+        <v>1366</v>
       </c>
       <c r="J15" s="41" t="s">
         <v>19</v>
@@ -26600,27 +28253,27 @@
       </c>
       <c r="L15" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>Fail : 10/10/2025 11:53:54 am</v>
+        <v>Fail : 17/11/2025 12:26:56 pm</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="C16" s="44" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="D16" s="45" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="F16" s="43" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="G16" s="43" t="s">
         <v>17</v>
@@ -26629,7 +28282,7 @@
         <v>195</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>1263</v>
+        <v>1367</v>
       </c>
       <c r="J16" s="41" t="s">
         <v>19</v>
@@ -26639,25 +28292,25 @@
       </c>
       <c r="L16" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>Fail : 10/10/2025 11:53:54 am</v>
+        <v>Fail : 17/11/2025 12:27:06 pm</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="76" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="B17" s="76" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="C17" s="77" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="D17" s="78" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="E17" s="84"/>
       <c r="F17" s="80" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="G17" s="80" t="s">
         <v>17</v>
@@ -26666,7 +28319,7 @@
         <v>195</v>
       </c>
       <c r="I17" s="76" t="s">
-        <v>1263</v>
+        <v>1367</v>
       </c>
       <c r="J17" s="41" t="s">
         <v>19</v>
@@ -26676,34 +28329,34 @@
       </c>
       <c r="L17" s="82" t="str">
         <f t="shared" si="0"/>
-        <v>Fail : 10/10/2025 11:53:54 am</v>
+        <v>Fail : 17/11/2025 12:27:06 pm</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="90" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="B18" s="90" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="C18" s="91" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="D18" s="91" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="E18" s="92"/>
       <c r="F18" s="92" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="G18" s="92" t="s">
         <v>17</v>
       </c>
       <c r="H18" t="s" s="0">
-        <v>1141</v>
+        <v>1134</v>
       </c>
       <c r="I18" s="92" t="s">
-        <v>1165</v>
+        <v>1157</v>
       </c>
       <c r="J18" s="41" t="s">
         <v>288</v>
@@ -26718,16 +28371,16 @@
     </row>
     <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="76" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="B19" s="76" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="C19" s="44" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="D19" s="45" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="E19" s="21">
         <v>50003474920</v>
@@ -26742,7 +28395,7 @@
         <v>195</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>1166</v>
+        <v>1158</v>
       </c>
       <c r="J19" s="41" t="s">
         <v>288</v>
@@ -26757,31 +28410,31 @@
     </row>
     <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="76" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="B20" s="76" t="s">
+        <v>994</v>
+      </c>
+      <c r="C20" s="44" t="s">
         <v>1000</v>
       </c>
-      <c r="C20" s="44" t="s">
-        <v>1006</v>
-      </c>
       <c r="D20" s="45" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>120</v>
       </c>
       <c r="F20" s="43" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="G20" s="43" t="s">
         <v>17</v>
       </c>
       <c r="H20" t="s" s="0">
-        <v>1141</v>
+        <v>1134</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>1161</v>
+        <v>1153</v>
       </c>
       <c r="J20" s="41" t="s">
         <v>288</v>
@@ -26796,29 +28449,29 @@
     </row>
     <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="76" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="B21" s="76" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="C21" s="44" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="D21" s="45" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="E21" s="73"/>
       <c r="F21" s="43" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="G21" s="43" t="s">
         <v>17</v>
       </c>
       <c r="H21" t="s" s="0">
-        <v>1141</v>
+        <v>1134</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>1162</v>
+        <v>1154</v>
       </c>
       <c r="J21" s="41" t="s">
         <v>288</v>
@@ -26833,29 +28486,29 @@
     </row>
     <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="76" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="B22" s="76" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="C22" s="44" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="D22" s="45" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="E22" s="73"/>
       <c r="F22" s="43" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="G22" s="43" t="s">
         <v>17</v>
       </c>
       <c r="H22" t="s" s="0">
-        <v>1141</v>
+        <v>1134</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>1163</v>
+        <v>1155</v>
       </c>
       <c r="J22" s="41" t="s">
         <v>288</v>
@@ -26870,31 +28523,31 @@
     </row>
     <row r="23" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="76" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="B23" s="76" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="C23" s="45" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="D23" s="45" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="F23" s="43" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="G23" s="43" t="s">
         <v>17</v>
       </c>
       <c r="H23" t="s" s="0">
-        <v>1141</v>
+        <v>1134</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>1164</v>
+        <v>1156</v>
       </c>
       <c r="J23" s="41" t="s">
         <v>288</v>
@@ -26909,29 +28562,29 @@
     </row>
     <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="76" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="B24" s="76" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="C24" s="55" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="D24" s="75" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="E24" s="73"/>
       <c r="F24" s="43" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="G24" s="43" t="s">
         <v>17</v>
       </c>
       <c r="H24" t="s" s="0">
-        <v>1141</v>
+        <v>1134</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>1150</v>
+        <v>1142</v>
       </c>
       <c r="J24" s="41" t="s">
         <v>288</v>
@@ -26946,29 +28599,29 @@
     </row>
     <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="C25" s="55" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="D25" s="75" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="E25" s="73"/>
       <c r="F25" s="43" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="G25" s="43" t="s">
         <v>17</v>
       </c>
       <c r="H25" t="s" s="0">
-        <v>1141</v>
+        <v>1134</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>1151</v>
+        <v>1143</v>
       </c>
       <c r="J25" s="41" t="s">
         <v>288</v>
@@ -26983,29 +28636,29 @@
     </row>
     <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="C26" s="55" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="D26" s="75" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="E26" s="73"/>
       <c r="F26" s="43" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="G26" s="43" t="s">
         <v>17</v>
       </c>
       <c r="H26" t="s" s="0">
-        <v>1141</v>
+        <v>1134</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>1152</v>
+        <v>1144</v>
       </c>
       <c r="J26" s="41" t="s">
         <v>288</v>
@@ -27020,29 +28673,29 @@
     </row>
     <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="C27" s="55" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="D27" s="75" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="E27" s="73"/>
       <c r="F27" s="43" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="G27" s="43" t="s">
         <v>17</v>
       </c>
       <c r="H27" t="s" s="0">
-        <v>1141</v>
+        <v>1134</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>1153</v>
+        <v>1145</v>
       </c>
       <c r="J27" s="41" t="s">
         <v>288</v>
@@ -27057,29 +28710,29 @@
     </row>
     <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="C28" s="55" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="D28" s="75" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="E28" s="73"/>
       <c r="F28" s="43" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="G28" s="43" t="s">
         <v>17</v>
       </c>
       <c r="H28" t="s" s="0">
-        <v>1141</v>
+        <v>1134</v>
       </c>
       <c r="I28" s="18" t="s">
-        <v>1154</v>
+        <v>1146</v>
       </c>
       <c r="J28" s="41" t="s">
         <v>288</v>
@@ -27094,10 +28747,10 @@
     </row>
     <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="C29" s="44" t="s">
         <v>574</v>
@@ -27118,7 +28771,7 @@
         <v>195</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>1155</v>
+        <v>1147</v>
       </c>
       <c r="J29" s="41" t="s">
         <v>288</v>
@@ -27133,10 +28786,10 @@
     </row>
     <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="C30" s="44" t="s">
         <v>583</v>
@@ -27157,7 +28810,7 @@
         <v>195</v>
       </c>
       <c r="I30" s="18" t="s">
-        <v>1156</v>
+        <v>1148</v>
       </c>
       <c r="J30" s="41" t="s">
         <v>288</v>
@@ -27172,10 +28825,10 @@
     </row>
     <row r="31" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="C31" s="44" t="s">
         <v>589</v>
@@ -27193,10 +28846,10 @@
         <v>17</v>
       </c>
       <c r="H31" t="s" s="0">
-        <v>1141</v>
+        <v>1134</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
       <c r="J31" s="41" t="s">
         <v>288</v>
@@ -27211,10 +28864,10 @@
     </row>
     <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="C32" s="44" t="s">
         <v>595</v>
@@ -27235,7 +28888,7 @@
         <v>195</v>
       </c>
       <c r="I32" s="18" t="s">
-        <v>1158</v>
+        <v>1150</v>
       </c>
       <c r="J32" s="41" t="s">
         <v>288</v>
@@ -27250,10 +28903,10 @@
     </row>
     <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="C33" s="44" t="s">
         <v>601</v>
@@ -27262,7 +28915,7 @@
         <v>602</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>1160</v>
+        <v>1152</v>
       </c>
       <c r="F33" s="41" t="s">
         <v>604</v>
@@ -27274,7 +28927,7 @@
         <v>195</v>
       </c>
       <c r="I33" s="18" t="s">
-        <v>1159</v>
+        <v>1151</v>
       </c>
       <c r="J33" s="41" t="s">
         <v>288</v>
@@ -27289,10 +28942,10 @@
     </row>
     <row r="34" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="C34" s="44" t="s">
         <v>607</v>
@@ -27304,7 +28957,7 @@
         <v>120</v>
       </c>
       <c r="F34" s="60" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="G34" s="43" t="s">
         <v>17</v>
@@ -27313,7 +28966,7 @@
         <v>195</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>1159</v>
+        <v>1151</v>
       </c>
       <c r="J34" s="41" t="s">
         <v>288</v>
@@ -27328,16 +28981,16 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E19" xr:uid="{00000000-0002-0000-0800-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E19">
       <formula1>"Mahammad,50003474920"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F19 F4" xr:uid="{00000000-0002-0000-0800-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F19 F4">
       <formula1>"Account Number,Customer Name"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8" xr:uid="{00000000-0002-0000-0800-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8">
       <formula1>"Call,Visit,Walk-in"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4" xr:uid="{00000000-0002-0000-0800-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4">
       <formula1>"Mahammad,50003418412"</formula1>
     </dataValidation>
   </dataValidations>

--- a/FIGS_Automations/FIGS_Automations/FIGS_Automations/testdata/Acquisition_Services.xlsx
+++ b/FIGS_Automations/FIGS_Automations/FIGS_Automations/testdata/Acquisition_Services.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\FIGS_Automations\FIGS_Automations\FIGS_Automations\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF6C490-CE5C-4865-B646-16B95BAB5677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF5E1EB-1C07-42B6-923A-CF53F32544DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6385" uniqueCount="1388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6478" uniqueCount="1459">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -4209,14 +4209,227 @@
     <t>Enter Last Name</t>
   </si>
   <si>
-    <t>User should able to select title from dropdown</t>
+    <t>Select Gender</t>
+  </si>
+  <si>
+    <t>Enter Mobile Number</t>
+  </si>
+  <si>
+    <t>Select DOB</t>
+  </si>
+  <si>
+    <t>Enter Address One</t>
+  </si>
+  <si>
+    <t>Enter Address Two</t>
+  </si>
+  <si>
+    <t>Select State</t>
+  </si>
+  <si>
+    <t>Enter Pincode</t>
+  </si>
+  <si>
+    <t>Select Product Type</t>
+  </si>
+  <si>
+    <t>Select Product Category</t>
+  </si>
+  <si>
+    <t>Select Product</t>
+  </si>
+  <si>
+    <t>Enter Loan Amount</t>
+  </si>
+  <si>
+    <t>Select Customer Intrest</t>
+  </si>
+  <si>
+    <t>Enter CIF Number</t>
+  </si>
+  <si>
+    <t>Click on Proceed Button</t>
+  </si>
+  <si>
+    <t>TCLC003</t>
+  </si>
+  <si>
+    <t>TCLC004</t>
+  </si>
+  <si>
+    <t>TCLC005</t>
+  </si>
+  <si>
+    <t>TCLC006</t>
+  </si>
+  <si>
+    <t>TCLC007</t>
+  </si>
+  <si>
+    <t>TCLC008</t>
+  </si>
+  <si>
+    <t>TCLC009</t>
+  </si>
+  <si>
+    <t>TCLC010</t>
+  </si>
+  <si>
+    <t>TCLC011</t>
+  </si>
+  <si>
+    <t>TCLC012</t>
+  </si>
+  <si>
+    <t>TCLC013</t>
+  </si>
+  <si>
+    <t>TCLC014</t>
+  </si>
+  <si>
+    <t>TCLC015</t>
+  </si>
+  <si>
+    <t>TCLC016</t>
+  </si>
+  <si>
+    <t>TCLC017</t>
+  </si>
+  <si>
+    <t>TCLC018</t>
+  </si>
+  <si>
+    <t>TCLC019</t>
+  </si>
+  <si>
+    <t>TCLC020</t>
+  </si>
+  <si>
+    <t>TCLC021</t>
+  </si>
+  <si>
+    <t>TCLC022</t>
+  </si>
+  <si>
+    <t>TCLC023</t>
+  </si>
+  <si>
+    <t>User should able to Enter First Name in Textbox</t>
+  </si>
+  <si>
+    <t>User should able to Enter Middle Name in Textbox</t>
+  </si>
+  <si>
+    <t>User should able to Enter Last Name in Textbox</t>
+  </si>
+  <si>
+    <t>User should able to select Title from dropdown</t>
+  </si>
+  <si>
+    <t>User should able to select State from dropdown</t>
+  </si>
+  <si>
+    <t>User should able to select Gender from dropdown</t>
+  </si>
+  <si>
+    <t>User should able to Enter Mobile number in Textbox</t>
+  </si>
+  <si>
+    <t>User should able to select DOB from Calender</t>
+  </si>
+  <si>
+    <t>User should able to Enter Address 1 in Textbox</t>
+  </si>
+  <si>
+    <t>User should able to Enter Address 2 in Textbox</t>
+  </si>
+  <si>
+    <t>User should able to Pincode in Textbox</t>
+  </si>
+  <si>
+    <t>User should able to Product from dropdown</t>
+  </si>
+  <si>
+    <t>User should able to Product Type from dropdown</t>
+  </si>
+  <si>
+    <t>User should able to Customer Intrest from dropdown</t>
+  </si>
+  <si>
+    <t>User should able to Product Category from dropdown</t>
+  </si>
+  <si>
+    <t>User should able to Enter Loan Amount in Textbox</t>
+  </si>
+  <si>
+    <t>Select Existing Customer Radio</t>
+  </si>
+  <si>
+    <t>User should able to Existing Customer radio</t>
+  </si>
+  <si>
+    <t>User should able to enter CIF Number in Textbox</t>
+  </si>
+  <si>
+    <t>User should able to click on proceed button</t>
+  </si>
+  <si>
+    <t>Success Receipt should be display</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>ProductCategory</t>
+  </si>
+  <si>
+    <t>ProductType</t>
+  </si>
+  <si>
+    <t>CustomerIntrest</t>
+  </si>
+  <si>
+    <t>ExistingCustomerRadio</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>90006932120</t>
+  </si>
+  <si>
+    <t>Verify Receipt page</t>
+  </si>
+  <si>
+    <t>SelectTitle</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>Pass : 20/11/2025 6:32:16 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lead Creation Menu visible</t>
+  </si>
+  <si>
+    <t>Pass : 20/11/2025 6:32:17 pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Clicked on Lead Creation Menu &amp; Home Page Visible</t>
+  </si>
+  <si>
+    <t>Fail : 20/11/2025 6:32:32 pm</t>
+  </si>
+  <si>
+    <t>Fail : 20/11/2025 6:32:33 pm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4272,6 +4485,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF17C6A3"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="14">
@@ -4497,7 +4722,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4782,13 +5007,17 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -14230,7 +14459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L108"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A105" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
@@ -22534,8 +22763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="G4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23556,7 +23785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection sqref="A1:L4"/>
     </sheetView>
   </sheetViews>
@@ -24641,27 +24870,26 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F06A72-549A-4820-BEDB-C7FD408AC3BD}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="98" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" style="98" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.44140625" style="98" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.6640625" style="98" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" style="98" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" style="98" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" style="98" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="98.6640625" style="98" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.6640625" style="98" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="98" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.6640625" style="98" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" style="98" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="98"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="62.6640625" customWidth="1"/>
+    <col min="9" max="9" width="27.33203125" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -24703,40 +24931,40 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="100" t="s">
+      <c r="C2" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="99" t="s">
+      <c r="E2" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="99" t="s">
+      <c r="F2" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="99" t="s">
+      <c r="G2" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="99" t="s">
+      <c r="H2" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="99" t="s">
+      <c r="I2" s="98" t="s">
         <v>8</v>
       </c>
       <c r="J2" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="100" t="s">
+      <c r="K2" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="100" t="s">
+      <c r="L2" s="99" t="s">
         <v>11</v>
       </c>
     </row>
@@ -24760,7 +24988,12 @@
       <c r="G3" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="38"/>
+      <c r="H3" s="58" t="s">
+        <v>693</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>1453</v>
+      </c>
       <c r="J3" s="36" t="s">
         <v>19</v>
       </c>
@@ -24769,7 +25002,7 @@
       </c>
       <c r="L3" s="49" t="str">
         <f t="shared" ref="L3:L4" si="0">LEFT(I3,4)</f>
-        <v/>
+        <v>Pass : 20/11/2025 6:32:16 pm</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -24794,7 +25027,12 @@
       <c r="G4" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="38"/>
+      <c r="H4" s="58" t="s">
+        <v>1454</v>
+      </c>
+      <c r="I4" s="38" t="s">
+        <v>1455</v>
+      </c>
       <c r="J4" s="36" t="s">
         <v>19</v>
       </c>
@@ -24803,12 +25041,12 @@
       </c>
       <c r="L4" s="49" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Pass : 20/11/2025 6:32:17 pm</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="38" t="s">
-        <v>1375</v>
+        <v>1401</v>
       </c>
       <c r="B5" s="38" t="s">
         <v>1373</v>
@@ -24828,7 +25066,12 @@
       <c r="G5" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="38"/>
+      <c r="H5" s="58" t="s">
+        <v>1456</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>1455</v>
+      </c>
       <c r="J5" s="36" t="s">
         <v>19</v>
       </c>
@@ -24837,12 +25080,12 @@
       </c>
       <c r="L5" s="49" t="str">
         <f t="shared" ref="L5" si="1">LEFT(I5,4)</f>
-        <v/>
+        <v>Pass : 20/11/2025 6:32:17 pm</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="38" t="s">
-        <v>1375</v>
+        <v>1402</v>
       </c>
       <c r="B6" s="38" t="s">
         <v>1373</v>
@@ -24851,18 +25094,21 @@
         <v>1383</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>1387</v>
+        <v>1425</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>120</v>
+        <v>1452</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>1380</v>
+        <v>1451</v>
       </c>
       <c r="G6" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="38"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="38" t="s">
+        <v>1457</v>
+      </c>
       <c r="J6" s="36" t="s">
         <v>19</v>
       </c>
@@ -24871,12 +25117,12 @@
       </c>
       <c r="L6" s="49" t="str">
         <f t="shared" ref="L6" si="2">LEFT(I6,4)</f>
-        <v/>
+        <v>Fail : 20/11/2025 6:32:32 pm</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="38" t="s">
-        <v>1375</v>
+        <v>1403</v>
       </c>
       <c r="B7" s="38" t="s">
         <v>1373</v>
@@ -24885,18 +25131,21 @@
         <v>1384</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>1379</v>
+        <v>1422</v>
       </c>
       <c r="E7" s="38" t="s">
         <v>120</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>1380</v>
+        <v>1170</v>
       </c>
       <c r="G7" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="38"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="38" t="s">
+        <v>1458</v>
+      </c>
       <c r="J7" s="36" t="s">
         <v>19</v>
       </c>
@@ -24905,20 +25154,437 @@
       </c>
       <c r="L7" s="49" t="str">
         <f t="shared" ref="L7" si="3">LEFT(I7,4)</f>
-        <v/>
+        <v>Fail : 20/11/2025 6:32:33 pm</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="38" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>1373</v>
+      </c>
       <c r="C8" s="39" t="s">
         <v>1385</v>
       </c>
+      <c r="D8" s="39" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E8" s="58"/>
+      <c r="F8" s="38" t="s">
+        <v>1170</v>
+      </c>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="38" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>1373</v>
+      </c>
       <c r="C9" s="39" t="s">
         <v>1386</v>
       </c>
+      <c r="D9" s="39" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E9" s="58"/>
+      <c r="F9" s="38" t="s">
+        <v>1170</v>
+      </c>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="38" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>1427</v>
+      </c>
+      <c r="E10" s="58"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="38" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>1428</v>
+      </c>
+      <c r="E11" s="58"/>
+      <c r="F11" s="38" t="s">
+        <v>603</v>
+      </c>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="38" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>1429</v>
+      </c>
+      <c r="E12" s="58"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+    </row>
+    <row r="13" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A13" s="38" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>1430</v>
+      </c>
+      <c r="E13" s="58"/>
+      <c r="F13" s="101" t="s">
+        <v>597</v>
+      </c>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+    </row>
+    <row r="14" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A14" s="38" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>1431</v>
+      </c>
+      <c r="E14" s="58"/>
+      <c r="F14" s="101" t="s">
+        <v>597</v>
+      </c>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="38" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>1426</v>
+      </c>
+      <c r="E15" s="58"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="38" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>1432</v>
+      </c>
+      <c r="E16" s="58"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="38" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>1434</v>
+      </c>
+      <c r="E17" s="58"/>
+      <c r="F17" s="38" t="s">
+        <v>1445</v>
+      </c>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="38" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E18" s="58"/>
+      <c r="F18" s="38" t="s">
+        <v>1444</v>
+      </c>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="38" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E19" s="58"/>
+      <c r="F19" s="38" t="s">
+        <v>1443</v>
+      </c>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="38" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>1437</v>
+      </c>
+      <c r="E20" s="58"/>
+      <c r="F20" s="38" t="s">
+        <v>585</v>
+      </c>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="38" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E21" s="58"/>
+      <c r="F21" s="38" t="s">
+        <v>1446</v>
+      </c>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="38" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D22" s="58" t="s">
+        <v>1439</v>
+      </c>
+      <c r="E22" s="102" t="s">
+        <v>1448</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>1447</v>
+      </c>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="38" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E23" s="102" t="s">
+        <v>1449</v>
+      </c>
+      <c r="F23" s="38" t="s">
+        <v>553</v>
+      </c>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+    </row>
+    <row r="24" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A24" s="38" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C24" s="39" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>1441</v>
+      </c>
+      <c r="E24" s="58"/>
+      <c r="F24" s="101" t="s">
+        <v>1244</v>
+      </c>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="38" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C25" s="100" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D25" s="58" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
